--- a/IEEE Transactions Sheet.xlsx
+++ b/IEEE Transactions Sheet.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\DO_NOT_TOUCH\ieee_transactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\colin\Documents\GitHub\ieee_transactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA847BD-7D91-4C4F-A67C-56B08EE046FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA16597-B3C1-4BF8-B1FE-C73AD2EB3A34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="905" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="KEY" sheetId="12" r:id="rId1"/>
-    <sheet name="Plasma" sheetId="10" r:id="rId2"/>
-    <sheet name="Antennas &amp; Prop." sheetId="1" r:id="rId3"/>
-    <sheet name="Dielect. &amp; Elec. Insul." sheetId="3" r:id="rId4"/>
-    <sheet name="Magnetics" sheetId="4" r:id="rId5"/>
-    <sheet name="Electro. Mag. Comp." sheetId="5" r:id="rId6"/>
-    <sheet name="Education" sheetId="6" r:id="rId7"/>
-    <sheet name="Ultrason., Ferro. &amp; Freq. Cont." sheetId="9" r:id="rId8"/>
-    <sheet name="Circuits &amp; Systems" sheetId="7" r:id="rId9"/>
-    <sheet name="Biomed. Engineering" sheetId="8" r:id="rId10"/>
+    <sheet name="Test" sheetId="13" r:id="rId1"/>
+    <sheet name="KEY" sheetId="12" r:id="rId2"/>
+    <sheet name="Plasma" sheetId="10" r:id="rId3"/>
+    <sheet name="Antennas &amp; Prop." sheetId="1" r:id="rId4"/>
+    <sheet name="Dielect. &amp; Elec. Insul." sheetId="3" r:id="rId5"/>
+    <sheet name="Magnetics" sheetId="4" r:id="rId6"/>
+    <sheet name="Electro. Mag. Comp." sheetId="5" r:id="rId7"/>
+    <sheet name="Education" sheetId="6" r:id="rId8"/>
+    <sheet name="Ultrason., Ferro. &amp; Freq. Cont." sheetId="9" r:id="rId9"/>
+    <sheet name="Circuits &amp; Systems" sheetId="7" r:id="rId10"/>
+    <sheet name="Biomed. Engineering" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -948,7 +949,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -958,14 +966,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -976,6 +977,122 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1006,11 +1123,63 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Roboto"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1281,174 +1450,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Roboto"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color rgb="FF000000"/>
         <name val="Roboto"/>
         <scheme val="none"/>
@@ -1503,66 +1504,66 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A56E4C4C-42F6-46CB-B6DD-3A41872B04CB}" name="Table5" displayName="Table5" ref="A2:E347" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{A56E4C4C-42F6-46CB-B6DD-3A41872B04CB}" name="Table5" displayName="Table5" ref="A2:E347" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A2:E347" xr:uid="{A56E4C4C-42F6-46CB-B6DD-3A41872B04CB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{05FC2721-004E-40EC-A4F9-E69E49731D20}" name="Publication Title" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{9F3CC428-8FA1-4930-8391-3BEAE2DF9C3B}" name="Volume (Year)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{0E34F870-9691-4AD7-95B0-E37A787C3CF2}" name=" Number in Volume" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{2E9247EB-B8B4-4331-B37C-ABD3D8CCB47C}" name="Month" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{167E7C8A-364B-4192-AD87-F47E41FB2961}" name="LOC" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{05FC2721-004E-40EC-A4F9-E69E49731D20}" name="Publication Title" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{9F3CC428-8FA1-4930-8391-3BEAE2DF9C3B}" name="Volume (Year)" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{0E34F870-9691-4AD7-95B0-E37A787C3CF2}" name=" Number in Volume" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{2E9247EB-B8B4-4331-B37C-ABD3D8CCB47C}" name="Month" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{167E7C8A-364B-4192-AD87-F47E41FB2961}" name="LOC" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D8F7554-DC6A-4DA4-9EFC-E5A94A59E665}" name="Table2" displayName="Table2" ref="A2:E115" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4D8F7554-DC6A-4DA4-9EFC-E5A94A59E665}" name="Table2" displayName="Table2" ref="A2:E115" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A2:E115" xr:uid="{4D8F7554-DC6A-4DA4-9EFC-E5A94A59E665}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E113">
     <sortCondition descending="1" ref="C2:C113"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{311C8710-D8EA-415A-A50B-522F06E62979}" name="Publication Title" dataDxfId="33" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{C27611B2-4C20-4B49-9138-3368DF7FD7F9}" name="Volume (Year)" dataDxfId="32" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{3F587ED5-98AD-4B02-8E63-9D7FD1D85EB3}" name=" Number in Volume" dataDxfId="31" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{098E9026-4C6D-496D-AFBC-4523601415D6}" name="Month" dataDxfId="30" dataCellStyle="Normal"/>
-    <tableColumn id="5" xr3:uid="{405316B0-7DDD-4F21-B11A-5BE483F1CBA0}" name="LOC" dataDxfId="29" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{311C8710-D8EA-415A-A50B-522F06E62979}" name="Publication Title" dataDxfId="26" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{C27611B2-4C20-4B49-9138-3368DF7FD7F9}" name="Volume (Year)" dataDxfId="25" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{3F587ED5-98AD-4B02-8E63-9D7FD1D85EB3}" name=" Number in Volume" dataDxfId="24" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{098E9026-4C6D-496D-AFBC-4523601415D6}" name="Month" dataDxfId="23" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{405316B0-7DDD-4F21-B11A-5BE483F1CBA0}" name="LOC" dataDxfId="22" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{534231B5-DE41-4824-95B6-44B2DA2F5F51}" name="Table7" displayName="Table7" ref="A2:E60" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{534231B5-DE41-4824-95B6-44B2DA2F5F51}" name="Table7" displayName="Table7" ref="A2:E60" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="A2:E60" xr:uid="{534231B5-DE41-4824-95B6-44B2DA2F5F51}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6A1BE78B-1F20-4F29-8AFB-73EEA159BEEC}" name="Publication Title" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F97E6944-F175-4EAA-A75E-BFBB86552A6C}" name="Volume (Year)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{BE86D065-1877-4177-ACE9-515C77D76F67}" name=" Number in Volume" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{95D38201-6780-422A-B36F-58AC3F017EF3}" name="Month" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{2A0B688D-EAD2-4F0C-93DE-91EE37D53914}" name="LOC" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6A1BE78B-1F20-4F29-8AFB-73EEA159BEEC}" name="Publication Title" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{F97E6944-F175-4EAA-A75E-BFBB86552A6C}" name="Volume (Year)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{BE86D065-1877-4177-ACE9-515C77D76F67}" name=" Number in Volume" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{95D38201-6780-422A-B36F-58AC3F017EF3}" name="Month" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{2A0B688D-EAD2-4F0C-93DE-91EE37D53914}" name="LOC" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BCD7FFDA-B4DD-4210-BE7F-8447FE5CBE4E}" name="Table8" displayName="Table8" ref="A2:E102" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BCD7FFDA-B4DD-4210-BE7F-8447FE5CBE4E}" name="Table8" displayName="Table8" ref="A2:E102" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A2:E102" xr:uid="{BCD7FFDA-B4DD-4210-BE7F-8447FE5CBE4E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{563598D1-6B6E-4477-A864-E3B98785DE34}" name="Publication Title" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{707F07CC-B07E-412E-96D2-0D316F1C46EB}" name="Volume (Year)" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{79B411D7-A038-481A-B32B-7169FC1A69C6}" name=" Number in Volume" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{950B90A0-68C2-4D77-898B-88AA2764D34E}" name="Month" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{FBB6095F-BF28-49A3-A0A1-DA0BB189FFA8}" name="LOC" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{563598D1-6B6E-4477-A864-E3B98785DE34}" name="Publication Title" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{707F07CC-B07E-412E-96D2-0D316F1C46EB}" name="Volume (Year)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{79B411D7-A038-481A-B32B-7169FC1A69C6}" name=" Number in Volume" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{950B90A0-68C2-4D77-898B-88AA2764D34E}" name="Month" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FBB6095F-BF28-49A3-A0A1-DA0BB189FFA8}" name="LOC" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D1CF48B-E675-4FD1-A31B-E32CE4F20271}" name="Table3" displayName="Table3" ref="A2:E10" totalsRowShown="0" tableBorderDxfId="28" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5D1CF48B-E675-4FD1-A31B-E32CE4F20271}" name="Table3" displayName="Table3" ref="A2:E10" totalsRowShown="0" tableBorderDxfId="7" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A2:E10" xr:uid="{5D1CF48B-E675-4FD1-A31B-E32CE4F20271}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2E7749AF-A84A-42F5-AD50-BD145F6A68F6}" name="Publication Title" dataCellStyle="Normal"/>
@@ -1576,14 +1577,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A5992C-DE47-4DE7-8DF4-13A22852B004}" name="Table1" displayName="Table1" ref="A2:E9" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E0A5992C-DE47-4DE7-8DF4-13A22852B004}" name="Table1" displayName="Table1" ref="A2:E9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E9" xr:uid="{E0A5992C-DE47-4DE7-8DF4-13A22852B004}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A2E50973-E2F4-4583-88C7-A6893665F3E7}" name="Publication Title" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{583CE2B3-6DBA-4EE9-ADD2-CE804C6006DF}" name="Volume (Year)" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{051FEA46-43AC-4721-AAD2-9D64A02F35FE}" name=" Number in Volume" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{7680A295-FF24-42DF-9581-27CC12B0D889}" name="Month" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{F4A12ABA-6D87-4023-9AEE-6928D94AB084}" name="LOC" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{A2E50973-E2F4-4583-88C7-A6893665F3E7}" name="Publication Title" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{583CE2B3-6DBA-4EE9-ADD2-CE804C6006DF}" name="Volume (Year)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{051FEA46-43AC-4721-AAD2-9D64A02F35FE}" name=" Number in Volume" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7680A295-FF24-42DF-9581-27CC12B0D889}" name="Month" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F4A12ABA-6D87-4023-9AEE-6928D94AB084}" name="LOC" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1885,47 +1886,671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54034BF7-4DB2-4B43-B9F9-D3386F8A9DB7}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782F66F2-D847-4472-998B-59E418C50015}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="90.42578125" style="37" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="37" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="37"/>
-    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="37"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="27" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="38" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713C6BF1-337C-48B5-96D5-3F86203A9C71}">
+  <dimension ref="A1:F500"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="33.7109375" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+    </row>
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="33">
+        <v>7</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="35">
+        <v>8</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35">
+        <v>9</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35">
+        <v>10</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35">
+        <v>11</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35">
+        <v>12</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="35">
+        <v>1</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35">
+        <v>2</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA44296E-56B4-4F7C-9F69-65A91D4944C8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -1945,14 +2570,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -2561,13 +3186,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54034BF7-4DB2-4B43-B9F9-D3386F8A9DB7}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="90.42578125" style="37" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="37" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="37"/>
+    <col min="5" max="5" width="17.42578125" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="27" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594A94FB-1146-49F3-BE1F-CDA5305BF8EC}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2580,14 +3246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -2605,7 +3271,7 @@
       <c r="E2" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="46"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -2623,7 +3289,7 @@
       <c r="E3" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -2639,7 +3305,7 @@
       <c r="E4" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -2655,7 +3321,7 @@
       <c r="E5" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
@@ -2671,7 +3337,7 @@
       <c r="E6" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
@@ -2687,7 +3353,7 @@
       <c r="E7" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
@@ -2701,7 +3367,7 @@
       <c r="E8" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
@@ -2715,7 +3381,7 @@
       <c r="E9" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
@@ -2729,7 +3395,7 @@
       <c r="E10" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
@@ -2743,7 +3409,7 @@
       <c r="E11" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
@@ -2757,7 +3423,7 @@
       <c r="E12" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
@@ -2773,7 +3439,7 @@
       <c r="E13" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
@@ -2787,7 +3453,7 @@
       <c r="E14" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
@@ -2801,7 +3467,7 @@
       <c r="E15" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
@@ -2815,7 +3481,7 @@
       <c r="E16" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
@@ -2829,7 +3495,7 @@
       <c r="E17" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
@@ -2843,7 +3509,7 @@
       <c r="E18" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
@@ -2859,7 +3525,7 @@
       <c r="E19" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
@@ -2873,7 +3539,7 @@
       <c r="E20" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
@@ -2887,7 +3553,7 @@
       <c r="E21" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
@@ -2901,7 +3567,7 @@
       <c r="E22" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2915,7 +3581,7 @@
       <c r="E23" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
@@ -2931,7 +3597,7 @@
       <c r="E24" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
@@ -2945,7 +3611,7 @@
       <c r="E25" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
@@ -2959,7 +3625,7 @@
       <c r="E26" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
@@ -2973,7 +3639,7 @@
       <c r="E27" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
@@ -2987,7 +3653,7 @@
       <c r="E28" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
@@ -3003,7 +3669,7 @@
       <c r="E29" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -3017,7 +3683,7 @@
       <c r="E30" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="46"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
@@ -3031,7 +3697,7 @@
       <c r="E31" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
@@ -3045,7 +3711,7 @@
       <c r="E32" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
@@ -3059,7 +3725,7 @@
       <c r="E33" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
@@ -3073,7 +3739,7 @@
       <c r="E34" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
@@ -3089,7 +3755,7 @@
       <c r="E35" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
@@ -3103,7 +3769,7 @@
       <c r="E36" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="41"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="34"/>
@@ -3117,7 +3783,7 @@
       <c r="E37" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F37" s="46"/>
+      <c r="F37" s="41"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
@@ -3131,7 +3797,7 @@
       <c r="E38" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
@@ -3145,7 +3811,7 @@
       <c r="E39" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
@@ -3161,7 +3827,7 @@
       <c r="E40" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="41"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
@@ -3175,7 +3841,7 @@
       <c r="E41" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
@@ -3189,7 +3855,7 @@
       <c r="E42" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
@@ -3203,7 +3869,7 @@
       <c r="E43" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -3217,7 +3883,7 @@
       <c r="E44" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F44" s="46"/>
+      <c r="F44" s="41"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -3233,7 +3899,7 @@
       <c r="E45" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F45" s="46"/>
+      <c r="F45" s="41"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -3247,7 +3913,7 @@
       <c r="E46" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F46" s="46"/>
+      <c r="F46" s="41"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -3261,7 +3927,7 @@
       <c r="E47" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="41"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
@@ -3275,7 +3941,7 @@
       <c r="E48" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="41"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -3289,7 +3955,7 @@
       <c r="E49" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F49" s="46"/>
+      <c r="F49" s="41"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -3305,7 +3971,7 @@
       <c r="E50" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="46"/>
+      <c r="F50" s="41"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
@@ -3319,7 +3985,7 @@
       <c r="E51" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F51" s="46"/>
+      <c r="F51" s="41"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
@@ -3333,7 +3999,7 @@
       <c r="E52" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="41"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
@@ -3347,7 +4013,7 @@
       <c r="E53" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F53" s="46"/>
+      <c r="F53" s="41"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
@@ -3361,7 +4027,7 @@
       <c r="E54" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F54" s="46"/>
+      <c r="F54" s="41"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
@@ -3375,7 +4041,7 @@
       <c r="E55" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="41"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
@@ -3389,7 +4055,7 @@
       <c r="E56" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="41"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
@@ -3403,7 +4069,7 @@
       <c r="E57" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
@@ -3417,7 +4083,7 @@
       <c r="E58" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F58" s="46"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
@@ -3431,7 +4097,7 @@
       <c r="E59" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
@@ -3447,7 +4113,7 @@
       <c r="E60" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F60" s="46"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
@@ -3461,7 +4127,7 @@
       <c r="E61" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
@@ -3475,7 +4141,7 @@
       <c r="E62" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F62" s="46"/>
+      <c r="F62" s="41"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
@@ -3489,7 +4155,7 @@
       <c r="E63" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F63" s="46"/>
+      <c r="F63" s="41"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
@@ -3503,7 +4169,7 @@
       <c r="E64" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F64" s="46"/>
+      <c r="F64" s="41"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
@@ -3517,7 +4183,7 @@
       <c r="E65" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F65" s="46"/>
+      <c r="F65" s="41"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
@@ -3531,7 +4197,7 @@
       <c r="E66" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F66" s="46"/>
+      <c r="F66" s="41"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
@@ -3545,7 +4211,7 @@
       <c r="E67" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F67" s="46"/>
+      <c r="F67" s="41"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
@@ -3559,7 +4225,7 @@
       <c r="E68" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="41"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
@@ -3573,7 +4239,7 @@
       <c r="E69" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F69" s="46"/>
+      <c r="F69" s="41"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
@@ -3589,7 +4255,7 @@
       <c r="E70" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="41"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
@@ -3603,7 +4269,7 @@
       <c r="E71" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="41"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
@@ -3617,7 +4283,7 @@
       <c r="E72" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="41"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
@@ -3631,7 +4297,7 @@
       <c r="E73" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="41"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="34"/>
@@ -3645,7 +4311,7 @@
       <c r="E74" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F74" s="46"/>
+      <c r="F74" s="41"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
@@ -3659,7 +4325,7 @@
       <c r="E75" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F75" s="46"/>
+      <c r="F75" s="41"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
@@ -3673,7 +4339,7 @@
       <c r="E76" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F76" s="46"/>
+      <c r="F76" s="41"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
@@ -3687,7 +4353,7 @@
       <c r="E77" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F77" s="46"/>
+      <c r="F77" s="41"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
@@ -3701,7 +4367,7 @@
       <c r="E78" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F78" s="46"/>
+      <c r="F78" s="41"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="34"/>
@@ -3715,7 +4381,7 @@
       <c r="E79" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F79" s="46"/>
+      <c r="F79" s="41"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
@@ -3729,7 +4395,7 @@
       <c r="E80" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F80" s="46"/>
+      <c r="F80" s="41"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
@@ -3743,7 +4409,7 @@
       <c r="E81" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F81" s="46"/>
+      <c r="F81" s="41"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
@@ -3757,7 +4423,7 @@
       <c r="E82" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F82" s="46"/>
+      <c r="F82" s="41"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
@@ -3771,7 +4437,7 @@
       <c r="E83" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F83" s="46"/>
+      <c r="F83" s="41"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
@@ -3787,7 +4453,7 @@
       <c r="E84" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F84" s="46"/>
+      <c r="F84" s="41"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
@@ -3803,7 +4469,7 @@
       <c r="E85" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F85" s="46"/>
+      <c r="F85" s="41"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
@@ -3817,7 +4483,7 @@
       <c r="E86" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F86" s="46"/>
+      <c r="F86" s="41"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
@@ -3831,7 +4497,7 @@
       <c r="E87" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="46"/>
+      <c r="F87" s="41"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
@@ -3845,7 +4511,7 @@
       <c r="E88" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F88" s="46"/>
+      <c r="F88" s="41"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
@@ -3859,7 +4525,7 @@
       <c r="E89" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F89" s="46"/>
+      <c r="F89" s="41"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="34"/>
@@ -3873,7 +4539,7 @@
       <c r="E90" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F90" s="46"/>
+      <c r="F90" s="41"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="34"/>
@@ -3887,7 +4553,7 @@
       <c r="E91" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F91" s="46"/>
+      <c r="F91" s="41"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
@@ -3901,7 +4567,7 @@
       <c r="E92" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F92" s="46"/>
+      <c r="F92" s="41"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="34"/>
@@ -3915,7 +4581,7 @@
       <c r="E93" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F93" s="46"/>
+      <c r="F93" s="41"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="34"/>
@@ -3929,7 +4595,7 @@
       <c r="E94" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F94" s="46"/>
+      <c r="F94" s="41"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
@@ -3943,7 +4609,7 @@
       <c r="E95" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F95" s="46"/>
+      <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
@@ -3957,7 +4623,7 @@
       <c r="E96" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F96" s="46"/>
+      <c r="F96" s="41"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="34"/>
@@ -3973,7 +4639,7 @@
       <c r="E97" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F97" s="46"/>
+      <c r="F97" s="41"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
@@ -3987,7 +4653,7 @@
       <c r="E98" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F98" s="46"/>
+      <c r="F98" s="41"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
@@ -4001,7 +4667,7 @@
       <c r="E99" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F99" s="46"/>
+      <c r="F99" s="41"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
@@ -4015,7 +4681,7 @@
       <c r="E100" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F100" s="46"/>
+      <c r="F100" s="41"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="34"/>
@@ -4029,7 +4695,7 @@
       <c r="E101" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F101" s="46"/>
+      <c r="F101" s="41"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
@@ -4043,7 +4709,7 @@
       <c r="E102" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F102" s="46"/>
+      <c r="F102" s="41"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="34"/>
@@ -4057,7 +4723,7 @@
       <c r="E103" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F103" s="46"/>
+      <c r="F103" s="41"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="34"/>
@@ -4071,7 +4737,7 @@
       <c r="E104" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F104" s="46"/>
+      <c r="F104" s="41"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="34"/>
@@ -4085,7 +4751,7 @@
       <c r="E105" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F105" s="46"/>
+      <c r="F105" s="41"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="34"/>
@@ -4099,7 +4765,7 @@
       <c r="E106" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F106" s="46"/>
+      <c r="F106" s="41"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="34"/>
@@ -4113,7 +4779,7 @@
       <c r="E107" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F107" s="46"/>
+      <c r="F107" s="41"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="34"/>
@@ -4127,7 +4793,7 @@
       <c r="E108" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F108" s="46"/>
+      <c r="F108" s="41"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="34"/>
@@ -4141,7 +4807,7 @@
       <c r="E109" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F109" s="46"/>
+      <c r="F109" s="41"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="34"/>
@@ -4155,7 +4821,7 @@
       <c r="E110" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F110" s="46"/>
+      <c r="F110" s="41"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="34"/>
@@ -4169,7 +4835,7 @@
       <c r="E111" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F111" s="46"/>
+      <c r="F111" s="41"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
@@ -4183,7 +4849,7 @@
       <c r="E112" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F112" s="46"/>
+      <c r="F112" s="41"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
@@ -4199,7 +4865,7 @@
       <c r="E113" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F113" s="46"/>
+      <c r="F113" s="41"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
@@ -4213,7 +4879,7 @@
       <c r="E114" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F114" s="46"/>
+      <c r="F114" s="41"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="34"/>
@@ -4227,7 +4893,7 @@
       <c r="E115" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F115" s="46"/>
+      <c r="F115" s="41"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="34"/>
@@ -4241,7 +4907,7 @@
       <c r="E116" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F116" s="46"/>
+      <c r="F116" s="41"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="34"/>
@@ -4255,7 +4921,7 @@
       <c r="E117" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F117" s="46"/>
+      <c r="F117" s="41"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="34"/>
@@ -4269,7 +4935,7 @@
       <c r="E118" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F118" s="46"/>
+      <c r="F118" s="41"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="34"/>
@@ -4283,7 +4949,7 @@
       <c r="E119" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F119" s="46"/>
+      <c r="F119" s="41"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="34"/>
@@ -4297,7 +4963,7 @@
       <c r="E120" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F120" s="46"/>
+      <c r="F120" s="41"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="34"/>
@@ -4311,7 +4977,7 @@
       <c r="E121" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F121" s="46"/>
+      <c r="F121" s="41"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="34"/>
@@ -4325,7 +4991,7 @@
       <c r="E122" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F122" s="46"/>
+      <c r="F122" s="41"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="34"/>
@@ -4339,7 +5005,7 @@
       <c r="E123" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F123" s="46"/>
+      <c r="F123" s="41"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="34"/>
@@ -4353,7 +5019,7 @@
       <c r="E124" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F124" s="46"/>
+      <c r="F124" s="41"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="34"/>
@@ -4367,7 +5033,7 @@
       <c r="E125" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F125" s="46"/>
+      <c r="F125" s="41"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="34"/>
@@ -4381,7 +5047,7 @@
       <c r="E126" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F126" s="46"/>
+      <c r="F126" s="41"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="34"/>
@@ -4395,7 +5061,7 @@
       <c r="E127" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F127" s="46"/>
+      <c r="F127" s="41"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="34"/>
@@ -4409,7 +5075,7 @@
       <c r="E128" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F128" s="46"/>
+      <c r="F128" s="41"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="34"/>
@@ -4423,7 +5089,7 @@
       <c r="E129" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F129" s="46"/>
+      <c r="F129" s="41"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="34"/>
@@ -4433,7 +5099,7 @@
       </c>
       <c r="D130" s="34"/>
       <c r="E130" s="34"/>
-      <c r="F130" s="46"/>
+      <c r="F130" s="41"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="34"/>
@@ -4447,7 +5113,7 @@
       <c r="E131" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F131" s="46"/>
+      <c r="F131" s="41"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="34"/>
@@ -4463,7 +5129,7 @@
       <c r="E132" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F132" s="46"/>
+      <c r="F132" s="41"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="34"/>
@@ -4477,7 +5143,7 @@
       <c r="E133" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F133" s="46"/>
+      <c r="F133" s="41"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="34"/>
@@ -4491,7 +5157,7 @@
       <c r="E134" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F134" s="46"/>
+      <c r="F134" s="41"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="34"/>
@@ -4505,7 +5171,7 @@
       <c r="E135" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F135" s="46"/>
+      <c r="F135" s="41"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="34"/>
@@ -4519,7 +5185,7 @@
       <c r="E136" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F136" s="46"/>
+      <c r="F136" s="41"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="34"/>
@@ -4533,7 +5199,7 @@
       <c r="E137" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F137" s="46"/>
+      <c r="F137" s="41"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="34"/>
@@ -4547,7 +5213,7 @@
       <c r="E138" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F138" s="46"/>
+      <c r="F138" s="41"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="34"/>
@@ -4561,7 +5227,7 @@
       <c r="E139" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F139" s="46"/>
+      <c r="F139" s="41"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="34"/>
@@ -4575,7 +5241,7 @@
       <c r="E140" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F140" s="46"/>
+      <c r="F140" s="41"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="34"/>
@@ -4589,7 +5255,7 @@
       <c r="E141" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F141" s="46"/>
+      <c r="F141" s="41"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="34"/>
@@ -4603,7 +5269,7 @@
       <c r="E142" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F142" s="46"/>
+      <c r="F142" s="41"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="34"/>
@@ -4617,7 +5283,7 @@
       <c r="E143" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F143" s="46"/>
+      <c r="F143" s="41"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="34"/>
@@ -4631,7 +5297,7 @@
       <c r="E144" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F144" s="46"/>
+      <c r="F144" s="41"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="34"/>
@@ -4645,7 +5311,7 @@
       <c r="E145" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F145" s="46"/>
+      <c r="F145" s="41"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
@@ -4659,7 +5325,7 @@
       <c r="E146" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F146" s="46"/>
+      <c r="F146" s="41"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="34"/>
@@ -4673,7 +5339,7 @@
       <c r="E147" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F147" s="46"/>
+      <c r="F147" s="41"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="34"/>
@@ -4687,7 +5353,7 @@
       <c r="E148" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F148" s="46"/>
+      <c r="F148" s="41"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="34"/>
@@ -4701,7 +5367,7 @@
       <c r="E149" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F149" s="46"/>
+      <c r="F149" s="41"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="34"/>
@@ -4715,7 +5381,7 @@
       <c r="E150" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F150" s="46"/>
+      <c r="F150" s="41"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="34"/>
@@ -4729,7 +5395,7 @@
       <c r="E151" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F151" s="46"/>
+      <c r="F151" s="41"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="34"/>
@@ -4743,7 +5409,7 @@
       <c r="E152" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F152" s="46"/>
+      <c r="F152" s="41"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="34"/>
@@ -4759,7 +5425,7 @@
       <c r="E153" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F153" s="46"/>
+      <c r="F153" s="41"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="34"/>
@@ -4773,7 +5439,7 @@
       <c r="E154" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F154" s="46"/>
+      <c r="F154" s="41"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="34"/>
@@ -4787,7 +5453,7 @@
       <c r="E155" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F155" s="46"/>
+      <c r="F155" s="41"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="34"/>
@@ -4801,7 +5467,7 @@
       <c r="E156" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F156" s="46"/>
+      <c r="F156" s="41"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="34"/>
@@ -4815,7 +5481,7 @@
       <c r="E157" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F157" s="46"/>
+      <c r="F157" s="41"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="34"/>
@@ -4829,7 +5495,7 @@
       <c r="E158" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F158" s="46"/>
+      <c r="F158" s="41"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="34"/>
@@ -4843,7 +5509,7 @@
       <c r="E159" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F159" s="46"/>
+      <c r="F159" s="41"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="34"/>
@@ -4857,7 +5523,7 @@
       <c r="E160" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F160" s="46"/>
+      <c r="F160" s="41"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="34"/>
@@ -4871,7 +5537,7 @@
       <c r="E161" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F161" s="46"/>
+      <c r="F161" s="41"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="34"/>
@@ -4885,7 +5551,7 @@
       <c r="E162" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F162" s="46"/>
+      <c r="F162" s="41"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="34"/>
@@ -4899,7 +5565,7 @@
       <c r="E163" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F163" s="46"/>
+      <c r="F163" s="41"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="34"/>
@@ -4913,7 +5579,7 @@
       <c r="E164" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F164" s="46"/>
+      <c r="F164" s="41"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="34"/>
@@ -4927,7 +5593,7 @@
       <c r="E165" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F165" s="46"/>
+      <c r="F165" s="41"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="34"/>
@@ -4941,7 +5607,7 @@
       <c r="E166" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F166" s="46"/>
+      <c r="F166" s="41"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="34"/>
@@ -4955,7 +5621,7 @@
       <c r="E167" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F167" s="46"/>
+      <c r="F167" s="41"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="34"/>
@@ -4969,7 +5635,7 @@
       <c r="E168" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F168" s="46"/>
+      <c r="F168" s="41"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="34"/>
@@ -4985,7 +5651,7 @@
       <c r="E169" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F169" s="46"/>
+      <c r="F169" s="41"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="34"/>
@@ -4999,7 +5665,7 @@
       <c r="E170" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F170" s="46"/>
+      <c r="F170" s="41"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="34"/>
@@ -5013,7 +5679,7 @@
       <c r="E171" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F171" s="46"/>
+      <c r="F171" s="41"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="34"/>
@@ -5027,7 +5693,7 @@
       <c r="E172" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F172" s="46"/>
+      <c r="F172" s="41"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="34"/>
@@ -5041,7 +5707,7 @@
       <c r="E173" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F173" s="46"/>
+      <c r="F173" s="41"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="34"/>
@@ -5055,7 +5721,7 @@
       <c r="E174" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F174" s="46"/>
+      <c r="F174" s="41"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="34"/>
@@ -5069,7 +5735,7 @@
       <c r="E175" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F175" s="46"/>
+      <c r="F175" s="41"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="34"/>
@@ -5083,7 +5749,7 @@
       <c r="E176" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F176" s="46"/>
+      <c r="F176" s="41"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="34"/>
@@ -5097,7 +5763,7 @@
       <c r="E177" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F177" s="46"/>
+      <c r="F177" s="41"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="34"/>
@@ -5111,7 +5777,7 @@
       <c r="E178" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F178" s="46"/>
+      <c r="F178" s="41"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="34"/>
@@ -5125,7 +5791,7 @@
       <c r="E179" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F179" s="46"/>
+      <c r="F179" s="41"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="34"/>
@@ -5139,7 +5805,7 @@
       <c r="E180" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F180" s="46"/>
+      <c r="F180" s="41"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="34"/>
@@ -5153,7 +5819,7 @@
       <c r="E181" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F181" s="46"/>
+      <c r="F181" s="41"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="34"/>
@@ -5167,7 +5833,7 @@
       <c r="E182" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F182" s="46"/>
+      <c r="F182" s="41"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="34"/>
@@ -5181,7 +5847,7 @@
       <c r="E183" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F183" s="46"/>
+      <c r="F183" s="41"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="34"/>
@@ -5195,7 +5861,7 @@
       <c r="E184" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F184" s="46"/>
+      <c r="F184" s="41"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="34"/>
@@ -5209,7 +5875,7 @@
       <c r="E185" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F185" s="46"/>
+      <c r="F185" s="41"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="34"/>
@@ -5223,7 +5889,7 @@
       <c r="E186" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F186" s="46"/>
+      <c r="F186" s="41"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="34"/>
@@ -5237,7 +5903,7 @@
       <c r="E187" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F187" s="46"/>
+      <c r="F187" s="41"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="34"/>
@@ -5251,7 +5917,7 @@
       <c r="E188" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F188" s="46"/>
+      <c r="F188" s="41"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="34"/>
@@ -5267,7 +5933,7 @@
       <c r="E189" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F189" s="46"/>
+      <c r="F189" s="41"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="34"/>
@@ -5281,7 +5947,7 @@
       <c r="E190" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F190" s="46"/>
+      <c r="F190" s="41"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="34"/>
@@ -5295,7 +5961,7 @@
       <c r="E191" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F191" s="46"/>
+      <c r="F191" s="41"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="34"/>
@@ -5309,7 +5975,7 @@
       <c r="E192" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F192" s="46"/>
+      <c r="F192" s="41"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="34"/>
@@ -5323,7 +5989,7 @@
       <c r="E193" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F193" s="46"/>
+      <c r="F193" s="41"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="34"/>
@@ -5337,7 +6003,7 @@
       <c r="E194" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F194" s="46"/>
+      <c r="F194" s="41"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="34"/>
@@ -5351,7 +6017,7 @@
       <c r="E195" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F195" s="46"/>
+      <c r="F195" s="41"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="34"/>
@@ -5361,7 +6027,7 @@
       </c>
       <c r="D196" s="34"/>
       <c r="E196" s="34"/>
-      <c r="F196" s="46"/>
+      <c r="F196" s="41"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="34"/>
@@ -5375,7 +6041,7 @@
       <c r="E197" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F197" s="46"/>
+      <c r="F197" s="41"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="34"/>
@@ -5389,7 +6055,7 @@
       <c r="E198" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F198" s="46"/>
+      <c r="F198" s="41"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="34"/>
@@ -5403,7 +6069,7 @@
       <c r="E199" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F199" s="46"/>
+      <c r="F199" s="41"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="34"/>
@@ -5417,7 +6083,7 @@
       <c r="E200" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F200" s="46"/>
+      <c r="F200" s="41"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="34"/>
@@ -5431,7 +6097,7 @@
       <c r="E201" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F201" s="46"/>
+      <c r="F201" s="41"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="34"/>
@@ -5445,7 +6111,7 @@
       <c r="E202" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F202" s="46"/>
+      <c r="F202" s="41"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="34"/>
@@ -5459,7 +6125,7 @@
       <c r="E203" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F203" s="46"/>
+      <c r="F203" s="41"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="34"/>
@@ -5473,7 +6139,7 @@
       <c r="E204" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F204" s="46"/>
+      <c r="F204" s="41"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="34"/>
@@ -5487,7 +6153,7 @@
       <c r="E205" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F205" s="46"/>
+      <c r="F205" s="41"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="34"/>
@@ -5501,7 +6167,7 @@
       <c r="E206" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F206" s="46"/>
+      <c r="F206" s="41"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="34"/>
@@ -5515,7 +6181,7 @@
       <c r="E207" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F207" s="46"/>
+      <c r="F207" s="41"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="34"/>
@@ -5529,7 +6195,7 @@
       <c r="E208" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F208" s="46"/>
+      <c r="F208" s="41"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="34"/>
@@ -5543,7 +6209,7 @@
       <c r="E209" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F209" s="46"/>
+      <c r="F209" s="41"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="34"/>
@@ -5559,7 +6225,7 @@
       <c r="E210" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F210" s="46"/>
+      <c r="F210" s="41"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="34"/>
@@ -5573,7 +6239,7 @@
       <c r="E211" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F211" s="46"/>
+      <c r="F211" s="41"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="34"/>
@@ -5587,7 +6253,7 @@
       <c r="E212" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F212" s="46"/>
+      <c r="F212" s="41"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="34"/>
@@ -5601,7 +6267,7 @@
       <c r="E213" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F213" s="46"/>
+      <c r="F213" s="41"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="34"/>
@@ -5615,7 +6281,7 @@
       <c r="E214" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F214" s="46"/>
+      <c r="F214" s="41"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="34"/>
@@ -5629,7 +6295,7 @@
       <c r="E215" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F215" s="46"/>
+      <c r="F215" s="41"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="34"/>
@@ -5643,7 +6309,7 @@
       <c r="E216" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F216" s="46"/>
+      <c r="F216" s="41"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="34"/>
@@ -5657,7 +6323,7 @@
       <c r="E217" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F217" s="46"/>
+      <c r="F217" s="41"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="34"/>
@@ -5671,7 +6337,7 @@
       <c r="E218" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F218" s="46"/>
+      <c r="F218" s="41"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="34"/>
@@ -5685,7 +6351,7 @@
       <c r="E219" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F219" s="46"/>
+      <c r="F219" s="41"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="34"/>
@@ -5699,7 +6365,7 @@
       <c r="E220" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F220" s="46"/>
+      <c r="F220" s="41"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="34"/>
@@ -5713,7 +6379,7 @@
       <c r="E221" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F221" s="46"/>
+      <c r="F221" s="41"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="34"/>
@@ -5727,7 +6393,7 @@
       <c r="E222" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F222" s="46"/>
+      <c r="F222" s="41"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="34"/>
@@ -5741,7 +6407,7 @@
       <c r="E223" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F223" s="46"/>
+      <c r="F223" s="41"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="34"/>
@@ -5755,7 +6421,7 @@
       <c r="E224" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F224" s="46"/>
+      <c r="F224" s="41"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="34"/>
@@ -5769,7 +6435,7 @@
       <c r="E225" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F225" s="46"/>
+      <c r="F225" s="41"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="34"/>
@@ -5783,7 +6449,7 @@
       <c r="E226" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F226" s="46"/>
+      <c r="F226" s="41"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="34"/>
@@ -5797,7 +6463,7 @@
       <c r="E227" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F227" s="46"/>
+      <c r="F227" s="41"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="34"/>
@@ -5811,7 +6477,7 @@
       <c r="E228" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F228" s="46"/>
+      <c r="F228" s="41"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="34"/>
@@ -5827,7 +6493,7 @@
       <c r="E229" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F229" s="46"/>
+      <c r="F229" s="41"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="34"/>
@@ -5841,7 +6507,7 @@
       <c r="E230" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F230" s="46"/>
+      <c r="F230" s="41"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="34"/>
@@ -5855,7 +6521,7 @@
       <c r="E231" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F231" s="46"/>
+      <c r="F231" s="41"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="34"/>
@@ -5869,7 +6535,7 @@
       <c r="E232" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F232" s="46"/>
+      <c r="F232" s="41"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="34"/>
@@ -5883,7 +6549,7 @@
       <c r="E233" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F233" s="46"/>
+      <c r="F233" s="41"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="34"/>
@@ -5897,7 +6563,7 @@
       <c r="E234" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F234" s="46"/>
+      <c r="F234" s="41"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="34"/>
@@ -5911,7 +6577,7 @@
       <c r="E235" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F235" s="46"/>
+      <c r="F235" s="41"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="34"/>
@@ -5925,7 +6591,7 @@
       <c r="E236" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F236" s="46"/>
+      <c r="F236" s="41"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="34"/>
@@ -5939,7 +6605,7 @@
       <c r="E237" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F237" s="46"/>
+      <c r="F237" s="41"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="34"/>
@@ -5953,7 +6619,7 @@
       <c r="E238" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F238" s="46"/>
+      <c r="F238" s="41"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="34"/>
@@ -5967,7 +6633,7 @@
       <c r="E239" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F239" s="46"/>
+      <c r="F239" s="41"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="34"/>
@@ -5981,7 +6647,7 @@
       <c r="E240" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F240" s="46"/>
+      <c r="F240" s="41"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="34"/>
@@ -5995,7 +6661,7 @@
       <c r="E241" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F241" s="46"/>
+      <c r="F241" s="41"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="34"/>
@@ -6009,7 +6675,7 @@
       <c r="E242" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F242" s="46"/>
+      <c r="F242" s="41"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="34"/>
@@ -6023,7 +6689,7 @@
       <c r="E243" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F243" s="46"/>
+      <c r="F243" s="41"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="34"/>
@@ -6037,7 +6703,7 @@
       <c r="E244" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F244" s="46"/>
+      <c r="F244" s="41"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="34"/>
@@ -6051,7 +6717,7 @@
       <c r="E245" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F245" s="46"/>
+      <c r="F245" s="41"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="34"/>
@@ -6065,7 +6731,7 @@
       <c r="E246" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F246" s="46"/>
+      <c r="F246" s="41"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="34"/>
@@ -6079,7 +6745,7 @@
       <c r="E247" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F247" s="46"/>
+      <c r="F247" s="41"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="34"/>
@@ -6093,7 +6759,7 @@
       <c r="E248" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F248" s="46"/>
+      <c r="F248" s="41"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="34"/>
@@ -6103,7 +6769,7 @@
       </c>
       <c r="D249" s="34"/>
       <c r="E249" s="34"/>
-      <c r="F249" s="46"/>
+      <c r="F249" s="41"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="34"/>
@@ -6117,7 +6783,7 @@
       <c r="E250" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F250" s="46"/>
+      <c r="F250" s="41"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="34"/>
@@ -6133,7 +6799,7 @@
       <c r="E251" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F251" s="46"/>
+      <c r="F251" s="41"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="34"/>
@@ -6147,7 +6813,7 @@
       <c r="E252" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F252" s="46"/>
+      <c r="F252" s="41"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="34"/>
@@ -6161,7 +6827,7 @@
       <c r="E253" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F253" s="46"/>
+      <c r="F253" s="41"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="34"/>
@@ -6175,7 +6841,7 @@
       <c r="E254" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F254" s="46"/>
+      <c r="F254" s="41"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="34"/>
@@ -6189,7 +6855,7 @@
       <c r="E255" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F255" s="46"/>
+      <c r="F255" s="41"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="34"/>
@@ -6203,7 +6869,7 @@
       <c r="E256" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F256" s="46"/>
+      <c r="F256" s="41"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="34"/>
@@ -6217,7 +6883,7 @@
       <c r="E257" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F257" s="46"/>
+      <c r="F257" s="41"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="34"/>
@@ -6231,7 +6897,7 @@
       <c r="E258" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F258" s="46"/>
+      <c r="F258" s="41"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="34"/>
@@ -6245,7 +6911,7 @@
       <c r="E259" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F259" s="46"/>
+      <c r="F259" s="41"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="34"/>
@@ -6259,7 +6925,7 @@
       <c r="E260" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F260" s="46"/>
+      <c r="F260" s="41"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="34"/>
@@ -6273,7 +6939,7 @@
       <c r="E261" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F261" s="46"/>
+      <c r="F261" s="41"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="34"/>
@@ -6287,7 +6953,7 @@
       <c r="E262" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F262" s="46"/>
+      <c r="F262" s="41"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="34"/>
@@ -6301,7 +6967,7 @@
       <c r="E263" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F263" s="46"/>
+      <c r="F263" s="41"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="34"/>
@@ -6315,7 +6981,7 @@
       <c r="E264" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F264" s="46"/>
+      <c r="F264" s="41"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="34"/>
@@ -6329,7 +6995,7 @@
       <c r="E265" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F265" s="46"/>
+      <c r="F265" s="41"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="34"/>
@@ -6343,7 +7009,7 @@
       <c r="E266" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F266" s="46"/>
+      <c r="F266" s="41"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="34"/>
@@ -6357,7 +7023,7 @@
       <c r="E267" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F267" s="46"/>
+      <c r="F267" s="41"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="34"/>
@@ -6373,7 +7039,7 @@
       <c r="E268" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F268" s="46"/>
+      <c r="F268" s="41"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="34"/>
@@ -6387,7 +7053,7 @@
       <c r="E269" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F269" s="46"/>
+      <c r="F269" s="41"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="34"/>
@@ -6401,7 +7067,7 @@
       <c r="E270" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F270" s="46"/>
+      <c r="F270" s="41"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="34"/>
@@ -6415,7 +7081,7 @@
       <c r="E271" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F271" s="46"/>
+      <c r="F271" s="41"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="34"/>
@@ -6429,7 +7095,7 @@
       <c r="E272" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F272" s="46"/>
+      <c r="F272" s="41"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="34"/>
@@ -6443,7 +7109,7 @@
       <c r="E273" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F273" s="46"/>
+      <c r="F273" s="41"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="34"/>
@@ -6457,7 +7123,7 @@
       <c r="E274" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F274" s="46"/>
+      <c r="F274" s="41"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="34"/>
@@ -6471,7 +7137,7 @@
       <c r="E275" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F275" s="46"/>
+      <c r="F275" s="41"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="34"/>
@@ -6485,7 +7151,7 @@
       <c r="E276" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F276" s="46"/>
+      <c r="F276" s="41"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="34"/>
@@ -6499,7 +7165,7 @@
       <c r="E277" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F277" s="46"/>
+      <c r="F277" s="41"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="34"/>
@@ -6513,7 +7179,7 @@
       <c r="E278" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F278" s="46"/>
+      <c r="F278" s="41"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="34"/>
@@ -6527,7 +7193,7 @@
       <c r="E279" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F279" s="46"/>
+      <c r="F279" s="41"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="34"/>
@@ -6541,7 +7207,7 @@
       <c r="E280" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F280" s="46"/>
+      <c r="F280" s="41"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="34"/>
@@ -6555,7 +7221,7 @@
       <c r="E281" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F281" s="46"/>
+      <c r="F281" s="41"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="34"/>
@@ -6569,7 +7235,7 @@
       <c r="E282" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F282" s="46"/>
+      <c r="F282" s="41"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="34"/>
@@ -6583,7 +7249,7 @@
       <c r="E283" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F283" s="46"/>
+      <c r="F283" s="41"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="34"/>
@@ -6597,7 +7263,7 @@
       <c r="E284" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F284" s="46"/>
+      <c r="F284" s="41"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="34"/>
@@ -6611,7 +7277,7 @@
       <c r="E285" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F285" s="46"/>
+      <c r="F285" s="41"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="34"/>
@@ -6627,7 +7293,7 @@
       <c r="E286" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F286" s="46"/>
+      <c r="F286" s="41"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="34"/>
@@ -6641,7 +7307,7 @@
       <c r="E287" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F287" s="46"/>
+      <c r="F287" s="41"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="34"/>
@@ -6655,7 +7321,7 @@
       <c r="E288" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F288" s="46"/>
+      <c r="F288" s="41"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="34"/>
@@ -6669,7 +7335,7 @@
       <c r="E289" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F289" s="46"/>
+      <c r="F289" s="41"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="34"/>
@@ -6683,7 +7349,7 @@
       <c r="E290" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F290" s="46"/>
+      <c r="F290" s="41"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="34"/>
@@ -6697,7 +7363,7 @@
       <c r="E291" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F291" s="46"/>
+      <c r="F291" s="41"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="34"/>
@@ -6711,7 +7377,7 @@
       <c r="E292" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F292" s="46"/>
+      <c r="F292" s="41"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="34"/>
@@ -6725,7 +7391,7 @@
       <c r="E293" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F293" s="46"/>
+      <c r="F293" s="41"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="34"/>
@@ -6739,7 +7405,7 @@
       <c r="E294" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F294" s="46"/>
+      <c r="F294" s="41"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="34"/>
@@ -6749,7 +7415,7 @@
       </c>
       <c r="D295" s="34"/>
       <c r="E295" s="34"/>
-      <c r="F295" s="46"/>
+      <c r="F295" s="41"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="34"/>
@@ -6763,7 +7429,7 @@
       <c r="E296" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F296" s="46"/>
+      <c r="F296" s="41"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="34"/>
@@ -6777,7 +7443,7 @@
       <c r="E297" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F297" s="46"/>
+      <c r="F297" s="41"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="34"/>
@@ -6791,7 +7457,7 @@
       <c r="E298" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F298" s="46"/>
+      <c r="F298" s="41"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="34"/>
@@ -6805,7 +7471,7 @@
       <c r="E299" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F299" s="46"/>
+      <c r="F299" s="41"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="34"/>
@@ -6819,7 +7485,7 @@
       <c r="E300" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F300" s="46"/>
+      <c r="F300" s="41"/>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="34"/>
@@ -6833,7 +7499,7 @@
       <c r="E301" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F301" s="46"/>
+      <c r="F301" s="41"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="34"/>
@@ -6847,7 +7513,7 @@
       <c r="E302" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F302" s="46"/>
+      <c r="F302" s="41"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="34"/>
@@ -6861,7 +7527,7 @@
       <c r="E303" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F303" s="46"/>
+      <c r="F303" s="41"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="34"/>
@@ -6875,7 +7541,7 @@
       <c r="E304" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F304" s="46"/>
+      <c r="F304" s="41"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="34"/>
@@ -6889,7 +7555,7 @@
       <c r="E305" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F305" s="46"/>
+      <c r="F305" s="41"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="34"/>
@@ -6905,7 +7571,7 @@
       <c r="E306" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F306" s="46"/>
+      <c r="F306" s="41"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="34"/>
@@ -6919,7 +7585,7 @@
       <c r="E307" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F307" s="46"/>
+      <c r="F307" s="41"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="34"/>
@@ -6933,7 +7599,7 @@
       <c r="E308" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F308" s="46"/>
+      <c r="F308" s="41"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="34"/>
@@ -6947,7 +7613,7 @@
       <c r="E309" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F309" s="46"/>
+      <c r="F309" s="41"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="34"/>
@@ -6961,7 +7627,7 @@
       <c r="E310" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F310" s="46"/>
+      <c r="F310" s="41"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="34"/>
@@ -6975,7 +7641,7 @@
       <c r="E311" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F311" s="46"/>
+      <c r="F311" s="41"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="34"/>
@@ -6989,7 +7655,7 @@
       <c r="E312" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F312" s="46"/>
+      <c r="F312" s="41"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="34"/>
@@ -7003,7 +7669,7 @@
       <c r="E313" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F313" s="46"/>
+      <c r="F313" s="41"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="34"/>
@@ -7017,7 +7683,7 @@
       <c r="E314" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F314" s="46"/>
+      <c r="F314" s="41"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="34"/>
@@ -7031,7 +7697,7 @@
       <c r="E315" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F315" s="46"/>
+      <c r="F315" s="41"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="34"/>
@@ -7045,7 +7711,7 @@
       <c r="E316" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F316" s="46"/>
+      <c r="F316" s="41"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="34"/>
@@ -7059,7 +7725,7 @@
       <c r="E317" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F317" s="46"/>
+      <c r="F317" s="41"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="34"/>
@@ -7073,7 +7739,7 @@
       <c r="E318" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F318" s="46"/>
+      <c r="F318" s="41"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="34"/>
@@ -7087,7 +7753,7 @@
       <c r="E319" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F319" s="46"/>
+      <c r="F319" s="41"/>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="34"/>
@@ -7101,7 +7767,7 @@
       <c r="E320" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F320" s="46"/>
+      <c r="F320" s="41"/>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="34"/>
@@ -7111,7 +7777,7 @@
       </c>
       <c r="D321" s="34"/>
       <c r="E321" s="34"/>
-      <c r="F321" s="46"/>
+      <c r="F321" s="41"/>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="34"/>
@@ -7125,7 +7791,7 @@
       <c r="E322" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F322" s="46"/>
+      <c r="F322" s="41"/>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="34"/>
@@ -7139,7 +7805,7 @@
       <c r="E323" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F323" s="46"/>
+      <c r="F323" s="41"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="34"/>
@@ -7153,7 +7819,7 @@
       <c r="E324" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F324" s="46"/>
+      <c r="F324" s="41"/>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="34"/>
@@ -7167,7 +7833,7 @@
       <c r="E325" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F325" s="46"/>
+      <c r="F325" s="41"/>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="34"/>
@@ -7181,7 +7847,7 @@
       <c r="E326" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F326" s="46"/>
+      <c r="F326" s="41"/>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="34"/>
@@ -7195,7 +7861,7 @@
       <c r="E327" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F327" s="46"/>
+      <c r="F327" s="41"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="34"/>
@@ -7209,7 +7875,7 @@
       <c r="E328" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F328" s="46"/>
+      <c r="F328" s="41"/>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="34"/>
@@ -7225,7 +7891,7 @@
       <c r="E329" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F329" s="46"/>
+      <c r="F329" s="41"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="34"/>
@@ -7239,7 +7905,7 @@
       <c r="E330" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F330" s="46"/>
+      <c r="F330" s="41"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="34"/>
@@ -7253,7 +7919,7 @@
       <c r="E331" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F331" s="46"/>
+      <c r="F331" s="41"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="34"/>
@@ -7267,7 +7933,7 @@
       <c r="E332" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F332" s="46"/>
+      <c r="F332" s="41"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="34"/>
@@ -7281,7 +7947,7 @@
       <c r="E333" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F333" s="46"/>
+      <c r="F333" s="41"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="34"/>
@@ -7295,7 +7961,7 @@
       <c r="E334" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F334" s="46"/>
+      <c r="F334" s="41"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="34"/>
@@ -7309,7 +7975,7 @@
       <c r="E335" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F335" s="46"/>
+      <c r="F335" s="41"/>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="34"/>
@@ -7323,7 +7989,7 @@
       <c r="E336" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F336" s="46"/>
+      <c r="F336" s="41"/>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="34"/>
@@ -7337,7 +8003,7 @@
       <c r="E337" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F337" s="46"/>
+      <c r="F337" s="41"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="34"/>
@@ -7351,7 +8017,7 @@
       <c r="E338" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F338" s="46"/>
+      <c r="F338" s="41"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="34"/>
@@ -7365,7 +8031,7 @@
       <c r="E339" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F339" s="46"/>
+      <c r="F339" s="41"/>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="34"/>
@@ -7379,7 +8045,7 @@
       <c r="E340" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F340" s="46"/>
+      <c r="F340" s="41"/>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="34"/>
@@ -7393,7 +8059,7 @@
       <c r="E341" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F341" s="46"/>
+      <c r="F341" s="41"/>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="34"/>
@@ -7407,7 +8073,7 @@
       <c r="E342" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F342" s="46"/>
+      <c r="F342" s="41"/>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="34"/>
@@ -7421,7 +8087,7 @@
       <c r="E343" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F343" s="46"/>
+      <c r="F343" s="41"/>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="34"/>
@@ -7437,7 +8103,7 @@
       <c r="E344" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F344" s="46"/>
+      <c r="F344" s="41"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="34"/>
@@ -7451,7 +8117,7 @@
       <c r="E345" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F345" s="46"/>
+      <c r="F345" s="41"/>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="34"/>
@@ -7465,7 +8131,7 @@
       <c r="E346" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F346" s="46"/>
+      <c r="F346" s="41"/>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="34"/>
@@ -7479,1282 +8145,1282 @@
       <c r="E347" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="F347" s="46"/>
+      <c r="F347" s="41"/>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="46"/>
-      <c r="B348" s="46"/>
-      <c r="C348" s="46"/>
-      <c r="D348" s="46"/>
-      <c r="E348" s="46"/>
-      <c r="F348" s="46"/>
+      <c r="A348" s="41"/>
+      <c r="B348" s="41"/>
+      <c r="C348" s="41"/>
+      <c r="D348" s="41"/>
+      <c r="E348" s="41"/>
+      <c r="F348" s="41"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="46"/>
-      <c r="B349" s="46"/>
-      <c r="C349" s="46"/>
-      <c r="D349" s="46"/>
-      <c r="E349" s="46"/>
-      <c r="F349" s="46"/>
+      <c r="A349" s="41"/>
+      <c r="B349" s="41"/>
+      <c r="C349" s="41"/>
+      <c r="D349" s="41"/>
+      <c r="E349" s="41"/>
+      <c r="F349" s="41"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="46"/>
-      <c r="B350" s="46"/>
-      <c r="C350" s="46"/>
-      <c r="D350" s="46"/>
-      <c r="E350" s="46"/>
-      <c r="F350" s="46"/>
+      <c r="A350" s="41"/>
+      <c r="B350" s="41"/>
+      <c r="C350" s="41"/>
+      <c r="D350" s="41"/>
+      <c r="E350" s="41"/>
+      <c r="F350" s="41"/>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="46"/>
-      <c r="B351" s="46"/>
-      <c r="C351" s="46"/>
-      <c r="D351" s="46"/>
-      <c r="E351" s="46"/>
-      <c r="F351" s="46"/>
+      <c r="A351" s="41"/>
+      <c r="B351" s="41"/>
+      <c r="C351" s="41"/>
+      <c r="D351" s="41"/>
+      <c r="E351" s="41"/>
+      <c r="F351" s="41"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="46"/>
-      <c r="B352" s="46"/>
-      <c r="C352" s="46"/>
-      <c r="D352" s="46"/>
-      <c r="E352" s="46"/>
-      <c r="F352" s="46"/>
+      <c r="A352" s="41"/>
+      <c r="B352" s="41"/>
+      <c r="C352" s="41"/>
+      <c r="D352" s="41"/>
+      <c r="E352" s="41"/>
+      <c r="F352" s="41"/>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="46"/>
-      <c r="B353" s="46"/>
-      <c r="C353" s="46"/>
-      <c r="D353" s="46"/>
-      <c r="E353" s="46"/>
-      <c r="F353" s="46"/>
+      <c r="A353" s="41"/>
+      <c r="B353" s="41"/>
+      <c r="C353" s="41"/>
+      <c r="D353" s="41"/>
+      <c r="E353" s="41"/>
+      <c r="F353" s="41"/>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="46"/>
-      <c r="B354" s="46"/>
-      <c r="C354" s="46"/>
-      <c r="D354" s="46"/>
-      <c r="E354" s="46"/>
-      <c r="F354" s="46"/>
+      <c r="A354" s="41"/>
+      <c r="B354" s="41"/>
+      <c r="C354" s="41"/>
+      <c r="D354" s="41"/>
+      <c r="E354" s="41"/>
+      <c r="F354" s="41"/>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="46"/>
-      <c r="B355" s="46"/>
-      <c r="C355" s="46"/>
-      <c r="D355" s="46"/>
-      <c r="E355" s="46"/>
-      <c r="F355" s="46"/>
+      <c r="A355" s="41"/>
+      <c r="B355" s="41"/>
+      <c r="C355" s="41"/>
+      <c r="D355" s="41"/>
+      <c r="E355" s="41"/>
+      <c r="F355" s="41"/>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="46"/>
-      <c r="B356" s="46"/>
-      <c r="C356" s="46"/>
-      <c r="D356" s="46"/>
-      <c r="E356" s="46"/>
-      <c r="F356" s="46"/>
+      <c r="A356" s="41"/>
+      <c r="B356" s="41"/>
+      <c r="C356" s="41"/>
+      <c r="D356" s="41"/>
+      <c r="E356" s="41"/>
+      <c r="F356" s="41"/>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="46"/>
-      <c r="B357" s="46"/>
-      <c r="C357" s="46"/>
-      <c r="D357" s="46"/>
-      <c r="E357" s="46"/>
-      <c r="F357" s="46"/>
+      <c r="A357" s="41"/>
+      <c r="B357" s="41"/>
+      <c r="C357" s="41"/>
+      <c r="D357" s="41"/>
+      <c r="E357" s="41"/>
+      <c r="F357" s="41"/>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="46"/>
-      <c r="B358" s="46"/>
-      <c r="C358" s="46"/>
-      <c r="D358" s="46"/>
-      <c r="E358" s="46"/>
-      <c r="F358" s="46"/>
+      <c r="A358" s="41"/>
+      <c r="B358" s="41"/>
+      <c r="C358" s="41"/>
+      <c r="D358" s="41"/>
+      <c r="E358" s="41"/>
+      <c r="F358" s="41"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="46"/>
-      <c r="B359" s="46"/>
-      <c r="C359" s="46"/>
-      <c r="D359" s="46"/>
-      <c r="E359" s="46"/>
-      <c r="F359" s="46"/>
+      <c r="A359" s="41"/>
+      <c r="B359" s="41"/>
+      <c r="C359" s="41"/>
+      <c r="D359" s="41"/>
+      <c r="E359" s="41"/>
+      <c r="F359" s="41"/>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="46"/>
-      <c r="B360" s="46"/>
-      <c r="C360" s="46"/>
-      <c r="D360" s="46"/>
-      <c r="E360" s="46"/>
-      <c r="F360" s="46"/>
+      <c r="A360" s="41"/>
+      <c r="B360" s="41"/>
+      <c r="C360" s="41"/>
+      <c r="D360" s="41"/>
+      <c r="E360" s="41"/>
+      <c r="F360" s="41"/>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="46"/>
-      <c r="B361" s="46"/>
-      <c r="C361" s="46"/>
-      <c r="D361" s="46"/>
-      <c r="E361" s="46"/>
-      <c r="F361" s="46"/>
+      <c r="A361" s="41"/>
+      <c r="B361" s="41"/>
+      <c r="C361" s="41"/>
+      <c r="D361" s="41"/>
+      <c r="E361" s="41"/>
+      <c r="F361" s="41"/>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="46"/>
-      <c r="B362" s="46"/>
-      <c r="C362" s="46"/>
-      <c r="D362" s="46"/>
-      <c r="E362" s="46"/>
-      <c r="F362" s="46"/>
+      <c r="A362" s="41"/>
+      <c r="B362" s="41"/>
+      <c r="C362" s="41"/>
+      <c r="D362" s="41"/>
+      <c r="E362" s="41"/>
+      <c r="F362" s="41"/>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="46"/>
-      <c r="B363" s="46"/>
-      <c r="C363" s="46"/>
-      <c r="D363" s="46"/>
-      <c r="E363" s="46"/>
-      <c r="F363" s="46"/>
+      <c r="A363" s="41"/>
+      <c r="B363" s="41"/>
+      <c r="C363" s="41"/>
+      <c r="D363" s="41"/>
+      <c r="E363" s="41"/>
+      <c r="F363" s="41"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="46"/>
-      <c r="B364" s="46"/>
-      <c r="C364" s="46"/>
-      <c r="D364" s="46"/>
-      <c r="E364" s="46"/>
-      <c r="F364" s="46"/>
+      <c r="A364" s="41"/>
+      <c r="B364" s="41"/>
+      <c r="C364" s="41"/>
+      <c r="D364" s="41"/>
+      <c r="E364" s="41"/>
+      <c r="F364" s="41"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="46"/>
-      <c r="B365" s="46"/>
-      <c r="C365" s="46"/>
-      <c r="D365" s="46"/>
-      <c r="E365" s="46"/>
-      <c r="F365" s="46"/>
+      <c r="A365" s="41"/>
+      <c r="B365" s="41"/>
+      <c r="C365" s="41"/>
+      <c r="D365" s="41"/>
+      <c r="E365" s="41"/>
+      <c r="F365" s="41"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="46"/>
-      <c r="B366" s="46"/>
-      <c r="C366" s="46"/>
-      <c r="D366" s="46"/>
-      <c r="E366" s="46"/>
-      <c r="F366" s="46"/>
+      <c r="A366" s="41"/>
+      <c r="B366" s="41"/>
+      <c r="C366" s="41"/>
+      <c r="D366" s="41"/>
+      <c r="E366" s="41"/>
+      <c r="F366" s="41"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="46"/>
-      <c r="B367" s="46"/>
-      <c r="C367" s="46"/>
-      <c r="D367" s="46"/>
-      <c r="E367" s="46"/>
-      <c r="F367" s="46"/>
+      <c r="A367" s="41"/>
+      <c r="B367" s="41"/>
+      <c r="C367" s="41"/>
+      <c r="D367" s="41"/>
+      <c r="E367" s="41"/>
+      <c r="F367" s="41"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="46"/>
-      <c r="B368" s="46"/>
-      <c r="C368" s="46"/>
-      <c r="D368" s="46"/>
-      <c r="E368" s="46"/>
-      <c r="F368" s="46"/>
+      <c r="A368" s="41"/>
+      <c r="B368" s="41"/>
+      <c r="C368" s="41"/>
+      <c r="D368" s="41"/>
+      <c r="E368" s="41"/>
+      <c r="F368" s="41"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="46"/>
-      <c r="B369" s="46"/>
-      <c r="C369" s="46"/>
-      <c r="D369" s="46"/>
-      <c r="E369" s="46"/>
-      <c r="F369" s="46"/>
+      <c r="A369" s="41"/>
+      <c r="B369" s="41"/>
+      <c r="C369" s="41"/>
+      <c r="D369" s="41"/>
+      <c r="E369" s="41"/>
+      <c r="F369" s="41"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="46"/>
-      <c r="B370" s="46"/>
-      <c r="C370" s="46"/>
-      <c r="D370" s="46"/>
-      <c r="E370" s="46"/>
-      <c r="F370" s="46"/>
+      <c r="A370" s="41"/>
+      <c r="B370" s="41"/>
+      <c r="C370" s="41"/>
+      <c r="D370" s="41"/>
+      <c r="E370" s="41"/>
+      <c r="F370" s="41"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="46"/>
-      <c r="B371" s="46"/>
-      <c r="C371" s="46"/>
-      <c r="D371" s="46"/>
-      <c r="E371" s="46"/>
-      <c r="F371" s="46"/>
+      <c r="A371" s="41"/>
+      <c r="B371" s="41"/>
+      <c r="C371" s="41"/>
+      <c r="D371" s="41"/>
+      <c r="E371" s="41"/>
+      <c r="F371" s="41"/>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="46"/>
-      <c r="B372" s="46"/>
-      <c r="C372" s="46"/>
-      <c r="D372" s="46"/>
-      <c r="E372" s="46"/>
-      <c r="F372" s="46"/>
+      <c r="A372" s="41"/>
+      <c r="B372" s="41"/>
+      <c r="C372" s="41"/>
+      <c r="D372" s="41"/>
+      <c r="E372" s="41"/>
+      <c r="F372" s="41"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="46"/>
-      <c r="B373" s="46"/>
-      <c r="C373" s="46"/>
-      <c r="D373" s="46"/>
-      <c r="E373" s="46"/>
-      <c r="F373" s="46"/>
+      <c r="A373" s="41"/>
+      <c r="B373" s="41"/>
+      <c r="C373" s="41"/>
+      <c r="D373" s="41"/>
+      <c r="E373" s="41"/>
+      <c r="F373" s="41"/>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="46"/>
-      <c r="B374" s="46"/>
-      <c r="C374" s="46"/>
-      <c r="D374" s="46"/>
-      <c r="E374" s="46"/>
-      <c r="F374" s="46"/>
+      <c r="A374" s="41"/>
+      <c r="B374" s="41"/>
+      <c r="C374" s="41"/>
+      <c r="D374" s="41"/>
+      <c r="E374" s="41"/>
+      <c r="F374" s="41"/>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="46"/>
-      <c r="B375" s="46"/>
-      <c r="C375" s="46"/>
-      <c r="D375" s="46"/>
-      <c r="E375" s="46"/>
-      <c r="F375" s="46"/>
+      <c r="A375" s="41"/>
+      <c r="B375" s="41"/>
+      <c r="C375" s="41"/>
+      <c r="D375" s="41"/>
+      <c r="E375" s="41"/>
+      <c r="F375" s="41"/>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="46"/>
-      <c r="B376" s="46"/>
-      <c r="C376" s="46"/>
-      <c r="D376" s="46"/>
-      <c r="E376" s="46"/>
-      <c r="F376" s="46"/>
+      <c r="A376" s="41"/>
+      <c r="B376" s="41"/>
+      <c r="C376" s="41"/>
+      <c r="D376" s="41"/>
+      <c r="E376" s="41"/>
+      <c r="F376" s="41"/>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="46"/>
-      <c r="B377" s="46"/>
-      <c r="C377" s="46"/>
-      <c r="D377" s="46"/>
-      <c r="E377" s="46"/>
-      <c r="F377" s="46"/>
+      <c r="A377" s="41"/>
+      <c r="B377" s="41"/>
+      <c r="C377" s="41"/>
+      <c r="D377" s="41"/>
+      <c r="E377" s="41"/>
+      <c r="F377" s="41"/>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="46"/>
-      <c r="B378" s="46"/>
-      <c r="C378" s="46"/>
-      <c r="D378" s="46"/>
-      <c r="E378" s="46"/>
-      <c r="F378" s="46"/>
+      <c r="A378" s="41"/>
+      <c r="B378" s="41"/>
+      <c r="C378" s="41"/>
+      <c r="D378" s="41"/>
+      <c r="E378" s="41"/>
+      <c r="F378" s="41"/>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="46"/>
-      <c r="B379" s="46"/>
-      <c r="C379" s="46"/>
-      <c r="D379" s="46"/>
-      <c r="E379" s="46"/>
-      <c r="F379" s="46"/>
+      <c r="A379" s="41"/>
+      <c r="B379" s="41"/>
+      <c r="C379" s="41"/>
+      <c r="D379" s="41"/>
+      <c r="E379" s="41"/>
+      <c r="F379" s="41"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="46"/>
-      <c r="B380" s="46"/>
-      <c r="C380" s="46"/>
-      <c r="D380" s="46"/>
-      <c r="E380" s="46"/>
-      <c r="F380" s="46"/>
+      <c r="A380" s="41"/>
+      <c r="B380" s="41"/>
+      <c r="C380" s="41"/>
+      <c r="D380" s="41"/>
+      <c r="E380" s="41"/>
+      <c r="F380" s="41"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="46"/>
-      <c r="B381" s="46"/>
-      <c r="C381" s="46"/>
-      <c r="D381" s="46"/>
-      <c r="E381" s="46"/>
-      <c r="F381" s="46"/>
+      <c r="A381" s="41"/>
+      <c r="B381" s="41"/>
+      <c r="C381" s="41"/>
+      <c r="D381" s="41"/>
+      <c r="E381" s="41"/>
+      <c r="F381" s="41"/>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="46"/>
-      <c r="B382" s="46"/>
-      <c r="C382" s="46"/>
-      <c r="D382" s="46"/>
-      <c r="E382" s="46"/>
-      <c r="F382" s="46"/>
+      <c r="A382" s="41"/>
+      <c r="B382" s="41"/>
+      <c r="C382" s="41"/>
+      <c r="D382" s="41"/>
+      <c r="E382" s="41"/>
+      <c r="F382" s="41"/>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="46"/>
-      <c r="B383" s="46"/>
-      <c r="C383" s="46"/>
-      <c r="D383" s="46"/>
-      <c r="E383" s="46"/>
-      <c r="F383" s="46"/>
+      <c r="A383" s="41"/>
+      <c r="B383" s="41"/>
+      <c r="C383" s="41"/>
+      <c r="D383" s="41"/>
+      <c r="E383" s="41"/>
+      <c r="F383" s="41"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="46"/>
-      <c r="B384" s="46"/>
-      <c r="C384" s="46"/>
-      <c r="D384" s="46"/>
-      <c r="E384" s="46"/>
-      <c r="F384" s="46"/>
+      <c r="A384" s="41"/>
+      <c r="B384" s="41"/>
+      <c r="C384" s="41"/>
+      <c r="D384" s="41"/>
+      <c r="E384" s="41"/>
+      <c r="F384" s="41"/>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="46"/>
-      <c r="B385" s="46"/>
-      <c r="C385" s="46"/>
-      <c r="D385" s="46"/>
-      <c r="E385" s="46"/>
-      <c r="F385" s="46"/>
+      <c r="A385" s="41"/>
+      <c r="B385" s="41"/>
+      <c r="C385" s="41"/>
+      <c r="D385" s="41"/>
+      <c r="E385" s="41"/>
+      <c r="F385" s="41"/>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="46"/>
-      <c r="B386" s="46"/>
-      <c r="C386" s="46"/>
-      <c r="D386" s="46"/>
-      <c r="E386" s="46"/>
-      <c r="F386" s="46"/>
+      <c r="A386" s="41"/>
+      <c r="B386" s="41"/>
+      <c r="C386" s="41"/>
+      <c r="D386" s="41"/>
+      <c r="E386" s="41"/>
+      <c r="F386" s="41"/>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="46"/>
-      <c r="B387" s="46"/>
-      <c r="C387" s="46"/>
-      <c r="D387" s="46"/>
-      <c r="E387" s="46"/>
-      <c r="F387" s="46"/>
+      <c r="A387" s="41"/>
+      <c r="B387" s="41"/>
+      <c r="C387" s="41"/>
+      <c r="D387" s="41"/>
+      <c r="E387" s="41"/>
+      <c r="F387" s="41"/>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="46"/>
-      <c r="B388" s="46"/>
-      <c r="C388" s="46"/>
-      <c r="D388" s="46"/>
-      <c r="E388" s="46"/>
-      <c r="F388" s="46"/>
+      <c r="A388" s="41"/>
+      <c r="B388" s="41"/>
+      <c r="C388" s="41"/>
+      <c r="D388" s="41"/>
+      <c r="E388" s="41"/>
+      <c r="F388" s="41"/>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="46"/>
-      <c r="B389" s="46"/>
-      <c r="C389" s="46"/>
-      <c r="D389" s="46"/>
-      <c r="E389" s="46"/>
-      <c r="F389" s="46"/>
+      <c r="A389" s="41"/>
+      <c r="B389" s="41"/>
+      <c r="C389" s="41"/>
+      <c r="D389" s="41"/>
+      <c r="E389" s="41"/>
+      <c r="F389" s="41"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="46"/>
-      <c r="B390" s="46"/>
-      <c r="C390" s="46"/>
-      <c r="D390" s="46"/>
-      <c r="E390" s="46"/>
-      <c r="F390" s="46"/>
+      <c r="A390" s="41"/>
+      <c r="B390" s="41"/>
+      <c r="C390" s="41"/>
+      <c r="D390" s="41"/>
+      <c r="E390" s="41"/>
+      <c r="F390" s="41"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="46"/>
-      <c r="B391" s="46"/>
-      <c r="C391" s="46"/>
-      <c r="D391" s="46"/>
-      <c r="E391" s="46"/>
-      <c r="F391" s="46"/>
+      <c r="A391" s="41"/>
+      <c r="B391" s="41"/>
+      <c r="C391" s="41"/>
+      <c r="D391" s="41"/>
+      <c r="E391" s="41"/>
+      <c r="F391" s="41"/>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="46"/>
-      <c r="B392" s="46"/>
-      <c r="C392" s="46"/>
-      <c r="D392" s="46"/>
-      <c r="E392" s="46"/>
-      <c r="F392" s="46"/>
+      <c r="A392" s="41"/>
+      <c r="B392" s="41"/>
+      <c r="C392" s="41"/>
+      <c r="D392" s="41"/>
+      <c r="E392" s="41"/>
+      <c r="F392" s="41"/>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="46"/>
-      <c r="B393" s="46"/>
-      <c r="C393" s="46"/>
-      <c r="D393" s="46"/>
-      <c r="E393" s="46"/>
-      <c r="F393" s="46"/>
+      <c r="A393" s="41"/>
+      <c r="B393" s="41"/>
+      <c r="C393" s="41"/>
+      <c r="D393" s="41"/>
+      <c r="E393" s="41"/>
+      <c r="F393" s="41"/>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="46"/>
-      <c r="B394" s="46"/>
-      <c r="C394" s="46"/>
-      <c r="D394" s="46"/>
-      <c r="E394" s="46"/>
-      <c r="F394" s="46"/>
+      <c r="A394" s="41"/>
+      <c r="B394" s="41"/>
+      <c r="C394" s="41"/>
+      <c r="D394" s="41"/>
+      <c r="E394" s="41"/>
+      <c r="F394" s="41"/>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="46"/>
-      <c r="B395" s="46"/>
-      <c r="C395" s="46"/>
-      <c r="D395" s="46"/>
-      <c r="E395" s="46"/>
-      <c r="F395" s="46"/>
+      <c r="A395" s="41"/>
+      <c r="B395" s="41"/>
+      <c r="C395" s="41"/>
+      <c r="D395" s="41"/>
+      <c r="E395" s="41"/>
+      <c r="F395" s="41"/>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="46"/>
-      <c r="B396" s="46"/>
-      <c r="C396" s="46"/>
-      <c r="D396" s="46"/>
-      <c r="E396" s="46"/>
-      <c r="F396" s="46"/>
+      <c r="A396" s="41"/>
+      <c r="B396" s="41"/>
+      <c r="C396" s="41"/>
+      <c r="D396" s="41"/>
+      <c r="E396" s="41"/>
+      <c r="F396" s="41"/>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="46"/>
-      <c r="B397" s="46"/>
-      <c r="C397" s="46"/>
-      <c r="D397" s="46"/>
-      <c r="E397" s="46"/>
-      <c r="F397" s="46"/>
+      <c r="A397" s="41"/>
+      <c r="B397" s="41"/>
+      <c r="C397" s="41"/>
+      <c r="D397" s="41"/>
+      <c r="E397" s="41"/>
+      <c r="F397" s="41"/>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="46"/>
-      <c r="B398" s="46"/>
-      <c r="C398" s="46"/>
-      <c r="D398" s="46"/>
-      <c r="E398" s="46"/>
-      <c r="F398" s="46"/>
+      <c r="A398" s="41"/>
+      <c r="B398" s="41"/>
+      <c r="C398" s="41"/>
+      <c r="D398" s="41"/>
+      <c r="E398" s="41"/>
+      <c r="F398" s="41"/>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="46"/>
-      <c r="B399" s="46"/>
-      <c r="C399" s="46"/>
-      <c r="D399" s="46"/>
-      <c r="E399" s="46"/>
-      <c r="F399" s="46"/>
+      <c r="A399" s="41"/>
+      <c r="B399" s="41"/>
+      <c r="C399" s="41"/>
+      <c r="D399" s="41"/>
+      <c r="E399" s="41"/>
+      <c r="F399" s="41"/>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="46"/>
-      <c r="B400" s="46"/>
-      <c r="C400" s="46"/>
-      <c r="D400" s="46"/>
-      <c r="E400" s="46"/>
-      <c r="F400" s="46"/>
+      <c r="A400" s="41"/>
+      <c r="B400" s="41"/>
+      <c r="C400" s="41"/>
+      <c r="D400" s="41"/>
+      <c r="E400" s="41"/>
+      <c r="F400" s="41"/>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="46"/>
-      <c r="B401" s="46"/>
-      <c r="C401" s="46"/>
-      <c r="D401" s="46"/>
-      <c r="E401" s="46"/>
-      <c r="F401" s="46"/>
+      <c r="A401" s="41"/>
+      <c r="B401" s="41"/>
+      <c r="C401" s="41"/>
+      <c r="D401" s="41"/>
+      <c r="E401" s="41"/>
+      <c r="F401" s="41"/>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="46"/>
-      <c r="B402" s="46"/>
-      <c r="C402" s="46"/>
-      <c r="D402" s="46"/>
-      <c r="E402" s="46"/>
-      <c r="F402" s="46"/>
+      <c r="A402" s="41"/>
+      <c r="B402" s="41"/>
+      <c r="C402" s="41"/>
+      <c r="D402" s="41"/>
+      <c r="E402" s="41"/>
+      <c r="F402" s="41"/>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="46"/>
-      <c r="B403" s="46"/>
-      <c r="C403" s="46"/>
-      <c r="D403" s="46"/>
-      <c r="E403" s="46"/>
-      <c r="F403" s="46"/>
+      <c r="A403" s="41"/>
+      <c r="B403" s="41"/>
+      <c r="C403" s="41"/>
+      <c r="D403" s="41"/>
+      <c r="E403" s="41"/>
+      <c r="F403" s="41"/>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="46"/>
-      <c r="B404" s="46"/>
-      <c r="C404" s="46"/>
-      <c r="D404" s="46"/>
-      <c r="E404" s="46"/>
-      <c r="F404" s="46"/>
+      <c r="A404" s="41"/>
+      <c r="B404" s="41"/>
+      <c r="C404" s="41"/>
+      <c r="D404" s="41"/>
+      <c r="E404" s="41"/>
+      <c r="F404" s="41"/>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="46"/>
-      <c r="B405" s="46"/>
-      <c r="C405" s="46"/>
-      <c r="D405" s="46"/>
-      <c r="E405" s="46"/>
-      <c r="F405" s="46"/>
+      <c r="A405" s="41"/>
+      <c r="B405" s="41"/>
+      <c r="C405" s="41"/>
+      <c r="D405" s="41"/>
+      <c r="E405" s="41"/>
+      <c r="F405" s="41"/>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="46"/>
-      <c r="B406" s="46"/>
-      <c r="C406" s="46"/>
-      <c r="D406" s="46"/>
-      <c r="E406" s="46"/>
-      <c r="F406" s="46"/>
+      <c r="A406" s="41"/>
+      <c r="B406" s="41"/>
+      <c r="C406" s="41"/>
+      <c r="D406" s="41"/>
+      <c r="E406" s="41"/>
+      <c r="F406" s="41"/>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="46"/>
-      <c r="B407" s="46"/>
-      <c r="C407" s="46"/>
-      <c r="D407" s="46"/>
-      <c r="E407" s="46"/>
-      <c r="F407" s="46"/>
+      <c r="A407" s="41"/>
+      <c r="B407" s="41"/>
+      <c r="C407" s="41"/>
+      <c r="D407" s="41"/>
+      <c r="E407" s="41"/>
+      <c r="F407" s="41"/>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="46"/>
-      <c r="B408" s="46"/>
-      <c r="C408" s="46"/>
-      <c r="D408" s="46"/>
-      <c r="E408" s="46"/>
-      <c r="F408" s="46"/>
+      <c r="A408" s="41"/>
+      <c r="B408" s="41"/>
+      <c r="C408" s="41"/>
+      <c r="D408" s="41"/>
+      <c r="E408" s="41"/>
+      <c r="F408" s="41"/>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="46"/>
-      <c r="B409" s="46"/>
-      <c r="C409" s="46"/>
-      <c r="D409" s="46"/>
-      <c r="E409" s="46"/>
-      <c r="F409" s="46"/>
+      <c r="A409" s="41"/>
+      <c r="B409" s="41"/>
+      <c r="C409" s="41"/>
+      <c r="D409" s="41"/>
+      <c r="E409" s="41"/>
+      <c r="F409" s="41"/>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="46"/>
-      <c r="B410" s="46"/>
-      <c r="C410" s="46"/>
-      <c r="D410" s="46"/>
-      <c r="E410" s="46"/>
-      <c r="F410" s="46"/>
+      <c r="A410" s="41"/>
+      <c r="B410" s="41"/>
+      <c r="C410" s="41"/>
+      <c r="D410" s="41"/>
+      <c r="E410" s="41"/>
+      <c r="F410" s="41"/>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="46"/>
-      <c r="B411" s="46"/>
-      <c r="C411" s="46"/>
-      <c r="D411" s="46"/>
-      <c r="E411" s="46"/>
-      <c r="F411" s="46"/>
+      <c r="A411" s="41"/>
+      <c r="B411" s="41"/>
+      <c r="C411" s="41"/>
+      <c r="D411" s="41"/>
+      <c r="E411" s="41"/>
+      <c r="F411" s="41"/>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="46"/>
-      <c r="B412" s="46"/>
-      <c r="C412" s="46"/>
-      <c r="D412" s="46"/>
-      <c r="E412" s="46"/>
-      <c r="F412" s="46"/>
+      <c r="A412" s="41"/>
+      <c r="B412" s="41"/>
+      <c r="C412" s="41"/>
+      <c r="D412" s="41"/>
+      <c r="E412" s="41"/>
+      <c r="F412" s="41"/>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="46"/>
-      <c r="B413" s="46"/>
-      <c r="C413" s="46"/>
-      <c r="D413" s="46"/>
-      <c r="E413" s="46"/>
-      <c r="F413" s="46"/>
+      <c r="A413" s="41"/>
+      <c r="B413" s="41"/>
+      <c r="C413" s="41"/>
+      <c r="D413" s="41"/>
+      <c r="E413" s="41"/>
+      <c r="F413" s="41"/>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="46"/>
-      <c r="B414" s="46"/>
-      <c r="C414" s="46"/>
-      <c r="D414" s="46"/>
-      <c r="E414" s="46"/>
-      <c r="F414" s="46"/>
+      <c r="A414" s="41"/>
+      <c r="B414" s="41"/>
+      <c r="C414" s="41"/>
+      <c r="D414" s="41"/>
+      <c r="E414" s="41"/>
+      <c r="F414" s="41"/>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="46"/>
-      <c r="B415" s="46"/>
-      <c r="C415" s="46"/>
-      <c r="D415" s="46"/>
-      <c r="E415" s="46"/>
-      <c r="F415" s="46"/>
+      <c r="A415" s="41"/>
+      <c r="B415" s="41"/>
+      <c r="C415" s="41"/>
+      <c r="D415" s="41"/>
+      <c r="E415" s="41"/>
+      <c r="F415" s="41"/>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="46"/>
-      <c r="B416" s="46"/>
-      <c r="C416" s="46"/>
-      <c r="D416" s="46"/>
-      <c r="E416" s="46"/>
-      <c r="F416" s="46"/>
+      <c r="A416" s="41"/>
+      <c r="B416" s="41"/>
+      <c r="C416" s="41"/>
+      <c r="D416" s="41"/>
+      <c r="E416" s="41"/>
+      <c r="F416" s="41"/>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="46"/>
-      <c r="B417" s="46"/>
-      <c r="C417" s="46"/>
-      <c r="D417" s="46"/>
-      <c r="E417" s="46"/>
-      <c r="F417" s="46"/>
+      <c r="A417" s="41"/>
+      <c r="B417" s="41"/>
+      <c r="C417" s="41"/>
+      <c r="D417" s="41"/>
+      <c r="E417" s="41"/>
+      <c r="F417" s="41"/>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="46"/>
-      <c r="B418" s="46"/>
-      <c r="C418" s="46"/>
-      <c r="D418" s="46"/>
-      <c r="E418" s="46"/>
-      <c r="F418" s="46"/>
+      <c r="A418" s="41"/>
+      <c r="B418" s="41"/>
+      <c r="C418" s="41"/>
+      <c r="D418" s="41"/>
+      <c r="E418" s="41"/>
+      <c r="F418" s="41"/>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="46"/>
-      <c r="B419" s="46"/>
-      <c r="C419" s="46"/>
-      <c r="D419" s="46"/>
-      <c r="E419" s="46"/>
-      <c r="F419" s="46"/>
+      <c r="A419" s="41"/>
+      <c r="B419" s="41"/>
+      <c r="C419" s="41"/>
+      <c r="D419" s="41"/>
+      <c r="E419" s="41"/>
+      <c r="F419" s="41"/>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="46"/>
-      <c r="B420" s="46"/>
-      <c r="C420" s="46"/>
-      <c r="D420" s="46"/>
-      <c r="E420" s="46"/>
-      <c r="F420" s="46"/>
+      <c r="A420" s="41"/>
+      <c r="B420" s="41"/>
+      <c r="C420" s="41"/>
+      <c r="D420" s="41"/>
+      <c r="E420" s="41"/>
+      <c r="F420" s="41"/>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="46"/>
-      <c r="B421" s="46"/>
-      <c r="C421" s="46"/>
-      <c r="D421" s="46"/>
-      <c r="E421" s="46"/>
-      <c r="F421" s="46"/>
+      <c r="A421" s="41"/>
+      <c r="B421" s="41"/>
+      <c r="C421" s="41"/>
+      <c r="D421" s="41"/>
+      <c r="E421" s="41"/>
+      <c r="F421" s="41"/>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="46"/>
-      <c r="B422" s="46"/>
-      <c r="C422" s="46"/>
-      <c r="D422" s="46"/>
-      <c r="E422" s="46"/>
-      <c r="F422" s="46"/>
+      <c r="A422" s="41"/>
+      <c r="B422" s="41"/>
+      <c r="C422" s="41"/>
+      <c r="D422" s="41"/>
+      <c r="E422" s="41"/>
+      <c r="F422" s="41"/>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="46"/>
-      <c r="B423" s="46"/>
-      <c r="C423" s="46"/>
-      <c r="D423" s="46"/>
-      <c r="E423" s="46"/>
-      <c r="F423" s="46"/>
+      <c r="A423" s="41"/>
+      <c r="B423" s="41"/>
+      <c r="C423" s="41"/>
+      <c r="D423" s="41"/>
+      <c r="E423" s="41"/>
+      <c r="F423" s="41"/>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="46"/>
-      <c r="B424" s="46"/>
-      <c r="C424" s="46"/>
-      <c r="D424" s="46"/>
-      <c r="E424" s="46"/>
-      <c r="F424" s="46"/>
+      <c r="A424" s="41"/>
+      <c r="B424" s="41"/>
+      <c r="C424" s="41"/>
+      <c r="D424" s="41"/>
+      <c r="E424" s="41"/>
+      <c r="F424" s="41"/>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="46"/>
-      <c r="B425" s="46"/>
-      <c r="C425" s="46"/>
-      <c r="D425" s="46"/>
-      <c r="E425" s="46"/>
-      <c r="F425" s="46"/>
+      <c r="A425" s="41"/>
+      <c r="B425" s="41"/>
+      <c r="C425" s="41"/>
+      <c r="D425" s="41"/>
+      <c r="E425" s="41"/>
+      <c r="F425" s="41"/>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="46"/>
-      <c r="B426" s="46"/>
-      <c r="C426" s="46"/>
-      <c r="D426" s="46"/>
-      <c r="E426" s="46"/>
-      <c r="F426" s="46"/>
+      <c r="A426" s="41"/>
+      <c r="B426" s="41"/>
+      <c r="C426" s="41"/>
+      <c r="D426" s="41"/>
+      <c r="E426" s="41"/>
+      <c r="F426" s="41"/>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="46"/>
-      <c r="B427" s="46"/>
-      <c r="C427" s="46"/>
-      <c r="D427" s="46"/>
-      <c r="E427" s="46"/>
-      <c r="F427" s="46"/>
+      <c r="A427" s="41"/>
+      <c r="B427" s="41"/>
+      <c r="C427" s="41"/>
+      <c r="D427" s="41"/>
+      <c r="E427" s="41"/>
+      <c r="F427" s="41"/>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="46"/>
-      <c r="B428" s="46"/>
-      <c r="C428" s="46"/>
-      <c r="D428" s="46"/>
-      <c r="E428" s="46"/>
-      <c r="F428" s="46"/>
+      <c r="A428" s="41"/>
+      <c r="B428" s="41"/>
+      <c r="C428" s="41"/>
+      <c r="D428" s="41"/>
+      <c r="E428" s="41"/>
+      <c r="F428" s="41"/>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="46"/>
-      <c r="B429" s="46"/>
-      <c r="C429" s="46"/>
-      <c r="D429" s="46"/>
-      <c r="E429" s="46"/>
-      <c r="F429" s="46"/>
+      <c r="A429" s="41"/>
+      <c r="B429" s="41"/>
+      <c r="C429" s="41"/>
+      <c r="D429" s="41"/>
+      <c r="E429" s="41"/>
+      <c r="F429" s="41"/>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="46"/>
-      <c r="B430" s="46"/>
-      <c r="C430" s="46"/>
-      <c r="D430" s="46"/>
-      <c r="E430" s="46"/>
-      <c r="F430" s="46"/>
+      <c r="A430" s="41"/>
+      <c r="B430" s="41"/>
+      <c r="C430" s="41"/>
+      <c r="D430" s="41"/>
+      <c r="E430" s="41"/>
+      <c r="F430" s="41"/>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="46"/>
-      <c r="B431" s="46"/>
-      <c r="C431" s="46"/>
-      <c r="D431" s="46"/>
-      <c r="E431" s="46"/>
-      <c r="F431" s="46"/>
+      <c r="A431" s="41"/>
+      <c r="B431" s="41"/>
+      <c r="C431" s="41"/>
+      <c r="D431" s="41"/>
+      <c r="E431" s="41"/>
+      <c r="F431" s="41"/>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="46"/>
-      <c r="B432" s="46"/>
-      <c r="C432" s="46"/>
-      <c r="D432" s="46"/>
-      <c r="E432" s="46"/>
-      <c r="F432" s="46"/>
+      <c r="A432" s="41"/>
+      <c r="B432" s="41"/>
+      <c r="C432" s="41"/>
+      <c r="D432" s="41"/>
+      <c r="E432" s="41"/>
+      <c r="F432" s="41"/>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="46"/>
-      <c r="B433" s="46"/>
-      <c r="C433" s="46"/>
-      <c r="D433" s="46"/>
-      <c r="E433" s="46"/>
-      <c r="F433" s="46"/>
+      <c r="A433" s="41"/>
+      <c r="B433" s="41"/>
+      <c r="C433" s="41"/>
+      <c r="D433" s="41"/>
+      <c r="E433" s="41"/>
+      <c r="F433" s="41"/>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="46"/>
-      <c r="B434" s="46"/>
-      <c r="C434" s="46"/>
-      <c r="D434" s="46"/>
-      <c r="E434" s="46"/>
-      <c r="F434" s="46"/>
+      <c r="A434" s="41"/>
+      <c r="B434" s="41"/>
+      <c r="C434" s="41"/>
+      <c r="D434" s="41"/>
+      <c r="E434" s="41"/>
+      <c r="F434" s="41"/>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="46"/>
-      <c r="B435" s="46"/>
-      <c r="C435" s="46"/>
-      <c r="D435" s="46"/>
-      <c r="E435" s="46"/>
-      <c r="F435" s="46"/>
+      <c r="A435" s="41"/>
+      <c r="B435" s="41"/>
+      <c r="C435" s="41"/>
+      <c r="D435" s="41"/>
+      <c r="E435" s="41"/>
+      <c r="F435" s="41"/>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="46"/>
-      <c r="B436" s="46"/>
-      <c r="C436" s="46"/>
-      <c r="D436" s="46"/>
-      <c r="E436" s="46"/>
-      <c r="F436" s="46"/>
+      <c r="A436" s="41"/>
+      <c r="B436" s="41"/>
+      <c r="C436" s="41"/>
+      <c r="D436" s="41"/>
+      <c r="E436" s="41"/>
+      <c r="F436" s="41"/>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="46"/>
-      <c r="B437" s="46"/>
-      <c r="C437" s="46"/>
-      <c r="D437" s="46"/>
-      <c r="E437" s="46"/>
-      <c r="F437" s="46"/>
+      <c r="A437" s="41"/>
+      <c r="B437" s="41"/>
+      <c r="C437" s="41"/>
+      <c r="D437" s="41"/>
+      <c r="E437" s="41"/>
+      <c r="F437" s="41"/>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="46"/>
-      <c r="B438" s="46"/>
-      <c r="C438" s="46"/>
-      <c r="D438" s="46"/>
-      <c r="E438" s="46"/>
-      <c r="F438" s="46"/>
+      <c r="A438" s="41"/>
+      <c r="B438" s="41"/>
+      <c r="C438" s="41"/>
+      <c r="D438" s="41"/>
+      <c r="E438" s="41"/>
+      <c r="F438" s="41"/>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="46"/>
-      <c r="B439" s="46"/>
-      <c r="C439" s="46"/>
-      <c r="D439" s="46"/>
-      <c r="E439" s="46"/>
-      <c r="F439" s="46"/>
+      <c r="A439" s="41"/>
+      <c r="B439" s="41"/>
+      <c r="C439" s="41"/>
+      <c r="D439" s="41"/>
+      <c r="E439" s="41"/>
+      <c r="F439" s="41"/>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="46"/>
-      <c r="B440" s="46"/>
-      <c r="C440" s="46"/>
-      <c r="D440" s="46"/>
-      <c r="E440" s="46"/>
-      <c r="F440" s="46"/>
+      <c r="A440" s="41"/>
+      <c r="B440" s="41"/>
+      <c r="C440" s="41"/>
+      <c r="D440" s="41"/>
+      <c r="E440" s="41"/>
+      <c r="F440" s="41"/>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="46"/>
-      <c r="B441" s="46"/>
-      <c r="C441" s="46"/>
-      <c r="D441" s="46"/>
-      <c r="E441" s="46"/>
-      <c r="F441" s="46"/>
+      <c r="A441" s="41"/>
+      <c r="B441" s="41"/>
+      <c r="C441" s="41"/>
+      <c r="D441" s="41"/>
+      <c r="E441" s="41"/>
+      <c r="F441" s="41"/>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="46"/>
-      <c r="B442" s="46"/>
-      <c r="C442" s="46"/>
-      <c r="D442" s="46"/>
-      <c r="E442" s="46"/>
-      <c r="F442" s="46"/>
+      <c r="A442" s="41"/>
+      <c r="B442" s="41"/>
+      <c r="C442" s="41"/>
+      <c r="D442" s="41"/>
+      <c r="E442" s="41"/>
+      <c r="F442" s="41"/>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="46"/>
-      <c r="B443" s="46"/>
-      <c r="C443" s="46"/>
-      <c r="D443" s="46"/>
-      <c r="E443" s="46"/>
-      <c r="F443" s="46"/>
+      <c r="A443" s="41"/>
+      <c r="B443" s="41"/>
+      <c r="C443" s="41"/>
+      <c r="D443" s="41"/>
+      <c r="E443" s="41"/>
+      <c r="F443" s="41"/>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="46"/>
-      <c r="B444" s="46"/>
-      <c r="C444" s="46"/>
-      <c r="D444" s="46"/>
-      <c r="E444" s="46"/>
-      <c r="F444" s="46"/>
+      <c r="A444" s="41"/>
+      <c r="B444" s="41"/>
+      <c r="C444" s="41"/>
+      <c r="D444" s="41"/>
+      <c r="E444" s="41"/>
+      <c r="F444" s="41"/>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="46"/>
-      <c r="B445" s="46"/>
-      <c r="C445" s="46"/>
-      <c r="D445" s="46"/>
-      <c r="E445" s="46"/>
-      <c r="F445" s="46"/>
+      <c r="A445" s="41"/>
+      <c r="B445" s="41"/>
+      <c r="C445" s="41"/>
+      <c r="D445" s="41"/>
+      <c r="E445" s="41"/>
+      <c r="F445" s="41"/>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="46"/>
-      <c r="B446" s="46"/>
-      <c r="C446" s="46"/>
-      <c r="D446" s="46"/>
-      <c r="E446" s="46"/>
-      <c r="F446" s="46"/>
+      <c r="A446" s="41"/>
+      <c r="B446" s="41"/>
+      <c r="C446" s="41"/>
+      <c r="D446" s="41"/>
+      <c r="E446" s="41"/>
+      <c r="F446" s="41"/>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="46"/>
-      <c r="B447" s="46"/>
-      <c r="C447" s="46"/>
-      <c r="D447" s="46"/>
-      <c r="E447" s="46"/>
-      <c r="F447" s="46"/>
+      <c r="A447" s="41"/>
+      <c r="B447" s="41"/>
+      <c r="C447" s="41"/>
+      <c r="D447" s="41"/>
+      <c r="E447" s="41"/>
+      <c r="F447" s="41"/>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="46"/>
-      <c r="B448" s="46"/>
-      <c r="C448" s="46"/>
-      <c r="D448" s="46"/>
-      <c r="E448" s="46"/>
-      <c r="F448" s="46"/>
+      <c r="A448" s="41"/>
+      <c r="B448" s="41"/>
+      <c r="C448" s="41"/>
+      <c r="D448" s="41"/>
+      <c r="E448" s="41"/>
+      <c r="F448" s="41"/>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="46"/>
-      <c r="B449" s="46"/>
-      <c r="C449" s="46"/>
-      <c r="D449" s="46"/>
-      <c r="E449" s="46"/>
-      <c r="F449" s="46"/>
+      <c r="A449" s="41"/>
+      <c r="B449" s="41"/>
+      <c r="C449" s="41"/>
+      <c r="D449" s="41"/>
+      <c r="E449" s="41"/>
+      <c r="F449" s="41"/>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="46"/>
-      <c r="B450" s="46"/>
-      <c r="C450" s="46"/>
-      <c r="D450" s="46"/>
-      <c r="E450" s="46"/>
-      <c r="F450" s="46"/>
+      <c r="A450" s="41"/>
+      <c r="B450" s="41"/>
+      <c r="C450" s="41"/>
+      <c r="D450" s="41"/>
+      <c r="E450" s="41"/>
+      <c r="F450" s="41"/>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="46"/>
-      <c r="B451" s="46"/>
-      <c r="C451" s="46"/>
-      <c r="D451" s="46"/>
-      <c r="E451" s="46"/>
-      <c r="F451" s="46"/>
+      <c r="A451" s="41"/>
+      <c r="B451" s="41"/>
+      <c r="C451" s="41"/>
+      <c r="D451" s="41"/>
+      <c r="E451" s="41"/>
+      <c r="F451" s="41"/>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="46"/>
-      <c r="B452" s="46"/>
-      <c r="C452" s="46"/>
-      <c r="D452" s="46"/>
-      <c r="E452" s="46"/>
-      <c r="F452" s="46"/>
+      <c r="A452" s="41"/>
+      <c r="B452" s="41"/>
+      <c r="C452" s="41"/>
+      <c r="D452" s="41"/>
+      <c r="E452" s="41"/>
+      <c r="F452" s="41"/>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="46"/>
-      <c r="B453" s="46"/>
-      <c r="C453" s="46"/>
-      <c r="D453" s="46"/>
-      <c r="E453" s="46"/>
-      <c r="F453" s="46"/>
+      <c r="A453" s="41"/>
+      <c r="B453" s="41"/>
+      <c r="C453" s="41"/>
+      <c r="D453" s="41"/>
+      <c r="E453" s="41"/>
+      <c r="F453" s="41"/>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="46"/>
-      <c r="B454" s="46"/>
-      <c r="C454" s="46"/>
-      <c r="D454" s="46"/>
-      <c r="E454" s="46"/>
-      <c r="F454" s="46"/>
+      <c r="A454" s="41"/>
+      <c r="B454" s="41"/>
+      <c r="C454" s="41"/>
+      <c r="D454" s="41"/>
+      <c r="E454" s="41"/>
+      <c r="F454" s="41"/>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="46"/>
-      <c r="B455" s="46"/>
-      <c r="C455" s="46"/>
-      <c r="D455" s="46"/>
-      <c r="E455" s="46"/>
-      <c r="F455" s="46"/>
+      <c r="A455" s="41"/>
+      <c r="B455" s="41"/>
+      <c r="C455" s="41"/>
+      <c r="D455" s="41"/>
+      <c r="E455" s="41"/>
+      <c r="F455" s="41"/>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="46"/>
-      <c r="B456" s="46"/>
-      <c r="C456" s="46"/>
-      <c r="D456" s="46"/>
-      <c r="E456" s="46"/>
-      <c r="F456" s="46"/>
+      <c r="A456" s="41"/>
+      <c r="B456" s="41"/>
+      <c r="C456" s="41"/>
+      <c r="D456" s="41"/>
+      <c r="E456" s="41"/>
+      <c r="F456" s="41"/>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="46"/>
-      <c r="B457" s="46"/>
-      <c r="C457" s="46"/>
-      <c r="D457" s="46"/>
-      <c r="E457" s="46"/>
-      <c r="F457" s="46"/>
+      <c r="A457" s="41"/>
+      <c r="B457" s="41"/>
+      <c r="C457" s="41"/>
+      <c r="D457" s="41"/>
+      <c r="E457" s="41"/>
+      <c r="F457" s="41"/>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="46"/>
-      <c r="B458" s="46"/>
-      <c r="C458" s="46"/>
-      <c r="D458" s="46"/>
-      <c r="E458" s="46"/>
-      <c r="F458" s="46"/>
+      <c r="A458" s="41"/>
+      <c r="B458" s="41"/>
+      <c r="C458" s="41"/>
+      <c r="D458" s="41"/>
+      <c r="E458" s="41"/>
+      <c r="F458" s="41"/>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="46"/>
-      <c r="B459" s="46"/>
-      <c r="C459" s="46"/>
-      <c r="D459" s="46"/>
-      <c r="E459" s="46"/>
-      <c r="F459" s="46"/>
+      <c r="A459" s="41"/>
+      <c r="B459" s="41"/>
+      <c r="C459" s="41"/>
+      <c r="D459" s="41"/>
+      <c r="E459" s="41"/>
+      <c r="F459" s="41"/>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="46"/>
-      <c r="B460" s="46"/>
-      <c r="C460" s="46"/>
-      <c r="D460" s="46"/>
-      <c r="E460" s="46"/>
-      <c r="F460" s="46"/>
+      <c r="A460" s="41"/>
+      <c r="B460" s="41"/>
+      <c r="C460" s="41"/>
+      <c r="D460" s="41"/>
+      <c r="E460" s="41"/>
+      <c r="F460" s="41"/>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="46"/>
-      <c r="B461" s="46"/>
-      <c r="C461" s="46"/>
-      <c r="D461" s="46"/>
-      <c r="E461" s="46"/>
-      <c r="F461" s="46"/>
+      <c r="A461" s="41"/>
+      <c r="B461" s="41"/>
+      <c r="C461" s="41"/>
+      <c r="D461" s="41"/>
+      <c r="E461" s="41"/>
+      <c r="F461" s="41"/>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="46"/>
-      <c r="B462" s="46"/>
-      <c r="C462" s="46"/>
-      <c r="D462" s="46"/>
-      <c r="E462" s="46"/>
-      <c r="F462" s="46"/>
+      <c r="A462" s="41"/>
+      <c r="B462" s="41"/>
+      <c r="C462" s="41"/>
+      <c r="D462" s="41"/>
+      <c r="E462" s="41"/>
+      <c r="F462" s="41"/>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="46"/>
-      <c r="B463" s="46"/>
-      <c r="C463" s="46"/>
-      <c r="D463" s="46"/>
-      <c r="E463" s="46"/>
-      <c r="F463" s="46"/>
+      <c r="A463" s="41"/>
+      <c r="B463" s="41"/>
+      <c r="C463" s="41"/>
+      <c r="D463" s="41"/>
+      <c r="E463" s="41"/>
+      <c r="F463" s="41"/>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="46"/>
-      <c r="B464" s="46"/>
-      <c r="C464" s="46"/>
-      <c r="D464" s="46"/>
-      <c r="E464" s="46"/>
-      <c r="F464" s="46"/>
+      <c r="A464" s="41"/>
+      <c r="B464" s="41"/>
+      <c r="C464" s="41"/>
+      <c r="D464" s="41"/>
+      <c r="E464" s="41"/>
+      <c r="F464" s="41"/>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="46"/>
-      <c r="B465" s="46"/>
-      <c r="C465" s="46"/>
-      <c r="D465" s="46"/>
-      <c r="E465" s="46"/>
-      <c r="F465" s="46"/>
+      <c r="A465" s="41"/>
+      <c r="B465" s="41"/>
+      <c r="C465" s="41"/>
+      <c r="D465" s="41"/>
+      <c r="E465" s="41"/>
+      <c r="F465" s="41"/>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="46"/>
-      <c r="B466" s="46"/>
-      <c r="C466" s="46"/>
-      <c r="D466" s="46"/>
-      <c r="E466" s="46"/>
-      <c r="F466" s="46"/>
+      <c r="A466" s="41"/>
+      <c r="B466" s="41"/>
+      <c r="C466" s="41"/>
+      <c r="D466" s="41"/>
+      <c r="E466" s="41"/>
+      <c r="F466" s="41"/>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="46"/>
-      <c r="B467" s="46"/>
-      <c r="C467" s="46"/>
-      <c r="D467" s="46"/>
-      <c r="E467" s="46"/>
-      <c r="F467" s="46"/>
+      <c r="A467" s="41"/>
+      <c r="B467" s="41"/>
+      <c r="C467" s="41"/>
+      <c r="D467" s="41"/>
+      <c r="E467" s="41"/>
+      <c r="F467" s="41"/>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="46"/>
-      <c r="B468" s="46"/>
-      <c r="C468" s="46"/>
-      <c r="D468" s="46"/>
-      <c r="E468" s="46"/>
-      <c r="F468" s="46"/>
+      <c r="A468" s="41"/>
+      <c r="B468" s="41"/>
+      <c r="C468" s="41"/>
+      <c r="D468" s="41"/>
+      <c r="E468" s="41"/>
+      <c r="F468" s="41"/>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="46"/>
-      <c r="B469" s="46"/>
-      <c r="C469" s="46"/>
-      <c r="D469" s="46"/>
-      <c r="E469" s="46"/>
-      <c r="F469" s="46"/>
+      <c r="A469" s="41"/>
+      <c r="B469" s="41"/>
+      <c r="C469" s="41"/>
+      <c r="D469" s="41"/>
+      <c r="E469" s="41"/>
+      <c r="F469" s="41"/>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="46"/>
-      <c r="B470" s="46"/>
-      <c r="C470" s="46"/>
-      <c r="D470" s="46"/>
-      <c r="E470" s="46"/>
-      <c r="F470" s="46"/>
+      <c r="A470" s="41"/>
+      <c r="B470" s="41"/>
+      <c r="C470" s="41"/>
+      <c r="D470" s="41"/>
+      <c r="E470" s="41"/>
+      <c r="F470" s="41"/>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="46"/>
-      <c r="B471" s="46"/>
-      <c r="C471" s="46"/>
-      <c r="D471" s="46"/>
-      <c r="E471" s="46"/>
-      <c r="F471" s="46"/>
+      <c r="A471" s="41"/>
+      <c r="B471" s="41"/>
+      <c r="C471" s="41"/>
+      <c r="D471" s="41"/>
+      <c r="E471" s="41"/>
+      <c r="F471" s="41"/>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="46"/>
-      <c r="B472" s="46"/>
-      <c r="C472" s="46"/>
-      <c r="D472" s="46"/>
-      <c r="E472" s="46"/>
-      <c r="F472" s="46"/>
+      <c r="A472" s="41"/>
+      <c r="B472" s="41"/>
+      <c r="C472" s="41"/>
+      <c r="D472" s="41"/>
+      <c r="E472" s="41"/>
+      <c r="F472" s="41"/>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="46"/>
-      <c r="B473" s="46"/>
-      <c r="C473" s="46"/>
-      <c r="D473" s="46"/>
-      <c r="E473" s="46"/>
-      <c r="F473" s="46"/>
+      <c r="A473" s="41"/>
+      <c r="B473" s="41"/>
+      <c r="C473" s="41"/>
+      <c r="D473" s="41"/>
+      <c r="E473" s="41"/>
+      <c r="F473" s="41"/>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="46"/>
-      <c r="B474" s="46"/>
-      <c r="C474" s="46"/>
-      <c r="D474" s="46"/>
-      <c r="E474" s="46"/>
-      <c r="F474" s="46"/>
+      <c r="A474" s="41"/>
+      <c r="B474" s="41"/>
+      <c r="C474" s="41"/>
+      <c r="D474" s="41"/>
+      <c r="E474" s="41"/>
+      <c r="F474" s="41"/>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="46"/>
-      <c r="B475" s="46"/>
-      <c r="C475" s="46"/>
-      <c r="D475" s="46"/>
-      <c r="E475" s="46"/>
-      <c r="F475" s="46"/>
+      <c r="A475" s="41"/>
+      <c r="B475" s="41"/>
+      <c r="C475" s="41"/>
+      <c r="D475" s="41"/>
+      <c r="E475" s="41"/>
+      <c r="F475" s="41"/>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="46"/>
-      <c r="B476" s="46"/>
-      <c r="C476" s="46"/>
-      <c r="D476" s="46"/>
-      <c r="E476" s="46"/>
-      <c r="F476" s="46"/>
+      <c r="A476" s="41"/>
+      <c r="B476" s="41"/>
+      <c r="C476" s="41"/>
+      <c r="D476" s="41"/>
+      <c r="E476" s="41"/>
+      <c r="F476" s="41"/>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="46"/>
-      <c r="B477" s="46"/>
-      <c r="C477" s="46"/>
-      <c r="D477" s="46"/>
-      <c r="E477" s="46"/>
-      <c r="F477" s="46"/>
+      <c r="A477" s="41"/>
+      <c r="B477" s="41"/>
+      <c r="C477" s="41"/>
+      <c r="D477" s="41"/>
+      <c r="E477" s="41"/>
+      <c r="F477" s="41"/>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="46"/>
-      <c r="B478" s="46"/>
-      <c r="C478" s="46"/>
-      <c r="D478" s="46"/>
-      <c r="E478" s="46"/>
-      <c r="F478" s="46"/>
+      <c r="A478" s="41"/>
+      <c r="B478" s="41"/>
+      <c r="C478" s="41"/>
+      <c r="D478" s="41"/>
+      <c r="E478" s="41"/>
+      <c r="F478" s="41"/>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="46"/>
-      <c r="B479" s="46"/>
-      <c r="C479" s="46"/>
-      <c r="D479" s="46"/>
-      <c r="E479" s="46"/>
-      <c r="F479" s="46"/>
+      <c r="A479" s="41"/>
+      <c r="B479" s="41"/>
+      <c r="C479" s="41"/>
+      <c r="D479" s="41"/>
+      <c r="E479" s="41"/>
+      <c r="F479" s="41"/>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="46"/>
-      <c r="B480" s="46"/>
-      <c r="C480" s="46"/>
-      <c r="D480" s="46"/>
-      <c r="E480" s="46"/>
-      <c r="F480" s="46"/>
+      <c r="A480" s="41"/>
+      <c r="B480" s="41"/>
+      <c r="C480" s="41"/>
+      <c r="D480" s="41"/>
+      <c r="E480" s="41"/>
+      <c r="F480" s="41"/>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="46"/>
-      <c r="B481" s="46"/>
-      <c r="C481" s="46"/>
-      <c r="D481" s="46"/>
-      <c r="E481" s="46"/>
-      <c r="F481" s="46"/>
+      <c r="A481" s="41"/>
+      <c r="B481" s="41"/>
+      <c r="C481" s="41"/>
+      <c r="D481" s="41"/>
+      <c r="E481" s="41"/>
+      <c r="F481" s="41"/>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="46"/>
-      <c r="B482" s="46"/>
-      <c r="C482" s="46"/>
-      <c r="D482" s="46"/>
-      <c r="E482" s="46"/>
-      <c r="F482" s="46"/>
+      <c r="A482" s="41"/>
+      <c r="B482" s="41"/>
+      <c r="C482" s="41"/>
+      <c r="D482" s="41"/>
+      <c r="E482" s="41"/>
+      <c r="F482" s="41"/>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="46"/>
-      <c r="B483" s="46"/>
-      <c r="C483" s="46"/>
-      <c r="D483" s="46"/>
-      <c r="E483" s="46"/>
-      <c r="F483" s="46"/>
+      <c r="A483" s="41"/>
+      <c r="B483" s="41"/>
+      <c r="C483" s="41"/>
+      <c r="D483" s="41"/>
+      <c r="E483" s="41"/>
+      <c r="F483" s="41"/>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="46"/>
-      <c r="B484" s="46"/>
-      <c r="C484" s="46"/>
-      <c r="D484" s="46"/>
-      <c r="E484" s="46"/>
-      <c r="F484" s="46"/>
+      <c r="A484" s="41"/>
+      <c r="B484" s="41"/>
+      <c r="C484" s="41"/>
+      <c r="D484" s="41"/>
+      <c r="E484" s="41"/>
+      <c r="F484" s="41"/>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="46"/>
-      <c r="B485" s="46"/>
-      <c r="C485" s="46"/>
-      <c r="D485" s="46"/>
-      <c r="E485" s="46"/>
-      <c r="F485" s="46"/>
+      <c r="A485" s="41"/>
+      <c r="B485" s="41"/>
+      <c r="C485" s="41"/>
+      <c r="D485" s="41"/>
+      <c r="E485" s="41"/>
+      <c r="F485" s="41"/>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="46"/>
-      <c r="B486" s="46"/>
-      <c r="C486" s="46"/>
-      <c r="D486" s="46"/>
-      <c r="E486" s="46"/>
-      <c r="F486" s="46"/>
+      <c r="A486" s="41"/>
+      <c r="B486" s="41"/>
+      <c r="C486" s="41"/>
+      <c r="D486" s="41"/>
+      <c r="E486" s="41"/>
+      <c r="F486" s="41"/>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="46"/>
-      <c r="B487" s="46"/>
-      <c r="C487" s="46"/>
-      <c r="D487" s="46"/>
-      <c r="E487" s="46"/>
-      <c r="F487" s="46"/>
+      <c r="A487" s="41"/>
+      <c r="B487" s="41"/>
+      <c r="C487" s="41"/>
+      <c r="D487" s="41"/>
+      <c r="E487" s="41"/>
+      <c r="F487" s="41"/>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="46"/>
-      <c r="B488" s="46"/>
-      <c r="C488" s="46"/>
-      <c r="D488" s="46"/>
-      <c r="E488" s="46"/>
-      <c r="F488" s="46"/>
+      <c r="A488" s="41"/>
+      <c r="B488" s="41"/>
+      <c r="C488" s="41"/>
+      <c r="D488" s="41"/>
+      <c r="E488" s="41"/>
+      <c r="F488" s="41"/>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="46"/>
-      <c r="B489" s="46"/>
-      <c r="C489" s="46"/>
-      <c r="D489" s="46"/>
-      <c r="E489" s="46"/>
-      <c r="F489" s="46"/>
+      <c r="A489" s="41"/>
+      <c r="B489" s="41"/>
+      <c r="C489" s="41"/>
+      <c r="D489" s="41"/>
+      <c r="E489" s="41"/>
+      <c r="F489" s="41"/>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="46"/>
-      <c r="B490" s="46"/>
-      <c r="C490" s="46"/>
-      <c r="D490" s="46"/>
-      <c r="E490" s="46"/>
-      <c r="F490" s="46"/>
+      <c r="A490" s="41"/>
+      <c r="B490" s="41"/>
+      <c r="C490" s="41"/>
+      <c r="D490" s="41"/>
+      <c r="E490" s="41"/>
+      <c r="F490" s="41"/>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="46"/>
-      <c r="B491" s="46"/>
-      <c r="C491" s="46"/>
-      <c r="D491" s="46"/>
-      <c r="E491" s="46"/>
-      <c r="F491" s="46"/>
+      <c r="A491" s="41"/>
+      <c r="B491" s="41"/>
+      <c r="C491" s="41"/>
+      <c r="D491" s="41"/>
+      <c r="E491" s="41"/>
+      <c r="F491" s="41"/>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="46"/>
-      <c r="B492" s="46"/>
-      <c r="C492" s="46"/>
-      <c r="D492" s="46"/>
-      <c r="E492" s="46"/>
-      <c r="F492" s="46"/>
+      <c r="A492" s="41"/>
+      <c r="B492" s="41"/>
+      <c r="C492" s="41"/>
+      <c r="D492" s="41"/>
+      <c r="E492" s="41"/>
+      <c r="F492" s="41"/>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="46"/>
-      <c r="B493" s="46"/>
-      <c r="C493" s="46"/>
-      <c r="D493" s="46"/>
-      <c r="E493" s="46"/>
-      <c r="F493" s="46"/>
+      <c r="A493" s="41"/>
+      <c r="B493" s="41"/>
+      <c r="C493" s="41"/>
+      <c r="D493" s="41"/>
+      <c r="E493" s="41"/>
+      <c r="F493" s="41"/>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="46"/>
-      <c r="B494" s="46"/>
-      <c r="C494" s="46"/>
-      <c r="D494" s="46"/>
-      <c r="E494" s="46"/>
-      <c r="F494" s="46"/>
+      <c r="A494" s="41"/>
+      <c r="B494" s="41"/>
+      <c r="C494" s="41"/>
+      <c r="D494" s="41"/>
+      <c r="E494" s="41"/>
+      <c r="F494" s="41"/>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="46"/>
-      <c r="B495" s="46"/>
-      <c r="C495" s="46"/>
-      <c r="D495" s="46"/>
-      <c r="E495" s="46"/>
-      <c r="F495" s="46"/>
+      <c r="A495" s="41"/>
+      <c r="B495" s="41"/>
+      <c r="C495" s="41"/>
+      <c r="D495" s="41"/>
+      <c r="E495" s="41"/>
+      <c r="F495" s="41"/>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="46"/>
-      <c r="B496" s="46"/>
-      <c r="C496" s="46"/>
-      <c r="D496" s="46"/>
-      <c r="E496" s="46"/>
-      <c r="F496" s="46"/>
+      <c r="A496" s="41"/>
+      <c r="B496" s="41"/>
+      <c r="C496" s="41"/>
+      <c r="D496" s="41"/>
+      <c r="E496" s="41"/>
+      <c r="F496" s="41"/>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="46"/>
-      <c r="B497" s="46"/>
-      <c r="C497" s="46"/>
-      <c r="D497" s="46"/>
-      <c r="E497" s="46"/>
-      <c r="F497" s="46"/>
+      <c r="A497" s="41"/>
+      <c r="B497" s="41"/>
+      <c r="C497" s="41"/>
+      <c r="D497" s="41"/>
+      <c r="E497" s="41"/>
+      <c r="F497" s="41"/>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="46"/>
-      <c r="B498" s="46"/>
-      <c r="C498" s="46"/>
-      <c r="D498" s="46"/>
-      <c r="E498" s="46"/>
-      <c r="F498" s="46"/>
+      <c r="A498" s="41"/>
+      <c r="B498" s="41"/>
+      <c r="C498" s="41"/>
+      <c r="D498" s="41"/>
+      <c r="E498" s="41"/>
+      <c r="F498" s="41"/>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="46"/>
-      <c r="B499" s="46"/>
-      <c r="C499" s="46"/>
-      <c r="D499" s="46"/>
-      <c r="E499" s="46"/>
-      <c r="F499" s="46"/>
+      <c r="A499" s="41"/>
+      <c r="B499" s="41"/>
+      <c r="C499" s="41"/>
+      <c r="D499" s="41"/>
+      <c r="E499" s="41"/>
+      <c r="F499" s="41"/>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="46"/>
-      <c r="B500" s="46"/>
-      <c r="C500" s="46"/>
-      <c r="D500" s="46"/>
-      <c r="E500" s="46"/>
-      <c r="F500" s="46"/>
+      <c r="A500" s="41"/>
+      <c r="B500" s="41"/>
+      <c r="C500" s="41"/>
+      <c r="D500" s="41"/>
+      <c r="E500" s="41"/>
+      <c r="F500" s="41"/>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="46"/>
-      <c r="B501" s="46"/>
-      <c r="C501" s="46"/>
-      <c r="D501" s="46"/>
-      <c r="E501" s="46"/>
-      <c r="F501" s="46"/>
+      <c r="A501" s="41"/>
+      <c r="B501" s="41"/>
+      <c r="C501" s="41"/>
+      <c r="D501" s="41"/>
+      <c r="E501" s="41"/>
+      <c r="F501" s="41"/>
     </row>
     <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="46"/>
-      <c r="B502" s="46"/>
-      <c r="C502" s="46"/>
-      <c r="D502" s="46"/>
-      <c r="E502" s="46"/>
-      <c r="F502" s="46"/>
+      <c r="A502" s="41"/>
+      <c r="B502" s="41"/>
+      <c r="C502" s="41"/>
+      <c r="D502" s="41"/>
+      <c r="E502" s="41"/>
+      <c r="F502" s="41"/>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="46"/>
-      <c r="B503" s="46"/>
-      <c r="C503" s="46"/>
-      <c r="D503" s="46"/>
-      <c r="E503" s="46"/>
+      <c r="A503" s="41"/>
+      <c r="B503" s="41"/>
+      <c r="C503" s="41"/>
+      <c r="D503" s="41"/>
+      <c r="E503" s="41"/>
     </row>
     <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="46"/>
-      <c r="B504" s="46"/>
-      <c r="C504" s="46"/>
-      <c r="D504" s="46"/>
-      <c r="E504" s="46"/>
+      <c r="A504" s="41"/>
+      <c r="B504" s="41"/>
+      <c r="C504" s="41"/>
+      <c r="D504" s="41"/>
+      <c r="E504" s="41"/>
     </row>
     <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="46"/>
-      <c r="B505" s="46"/>
-      <c r="C505" s="46"/>
-      <c r="D505" s="46"/>
-      <c r="E505" s="46"/>
+      <c r="A505" s="41"/>
+      <c r="B505" s="41"/>
+      <c r="C505" s="41"/>
+      <c r="D505" s="41"/>
+      <c r="E505" s="41"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="46"/>
-      <c r="B506" s="46"/>
-      <c r="C506" s="46"/>
-      <c r="D506" s="46"/>
-      <c r="E506" s="46"/>
+      <c r="A506" s="41"/>
+      <c r="B506" s="41"/>
+      <c r="C506" s="41"/>
+      <c r="D506" s="41"/>
+      <c r="E506" s="41"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="46"/>
-      <c r="B507" s="46"/>
-      <c r="C507" s="46"/>
-      <c r="D507" s="46"/>
-      <c r="E507" s="46"/>
+      <c r="A507" s="41"/>
+      <c r="B507" s="41"/>
+      <c r="C507" s="41"/>
+      <c r="D507" s="41"/>
+      <c r="E507" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8768,7 +9434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8788,14 +9454,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -10106,7 +10772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F68BC5A7-185F-4501-86CC-443D5E581ED6}">
   <dimension ref="A1:F60"/>
   <sheetViews>
@@ -10123,14 +10789,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -10148,7 +10814,7 @@
       <c r="E2" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="F2" s="45"/>
+      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
@@ -10166,7 +10832,7 @@
       <c r="E3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -10180,7 +10846,7 @@
       <c r="E4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -10194,7 +10860,7 @@
       <c r="E5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
@@ -10208,7 +10874,7 @@
       <c r="E6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
@@ -10224,7 +10890,7 @@
       <c r="E7" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
@@ -10238,7 +10904,7 @@
       <c r="E8" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
@@ -10252,7 +10918,7 @@
       <c r="E9" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
@@ -10266,7 +10932,7 @@
       <c r="E10" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
@@ -10282,7 +10948,7 @@
       <c r="E11" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
@@ -10296,7 +10962,7 @@
       <c r="E12" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
@@ -10310,7 +10976,7 @@
       <c r="E13" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
@@ -10326,7 +10992,7 @@
       <c r="E14" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
@@ -10342,7 +11008,7 @@
       <c r="E15" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="45"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
@@ -10356,7 +11022,7 @@
       <c r="E16" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
@@ -10370,7 +11036,7 @@
       <c r="E17" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="40"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
@@ -10384,7 +11050,7 @@
       <c r="E18" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="40"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
@@ -10398,7 +11064,7 @@
       <c r="E19" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="40"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
@@ -10412,7 +11078,7 @@
       <c r="E20" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
@@ -10428,7 +11094,7 @@
       <c r="E21" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="40"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
@@ -10442,7 +11108,7 @@
       <c r="E22" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="40"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -10456,7 +11122,7 @@
       <c r="E23" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
@@ -10470,7 +11136,7 @@
       <c r="E24" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="40"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
@@ -10486,7 +11152,7 @@
       <c r="E25" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
@@ -10502,7 +11168,7 @@
       <c r="E26" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
@@ -10516,7 +11182,7 @@
       <c r="E27" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="40"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
@@ -10530,7 +11196,7 @@
       <c r="E28" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="40"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
@@ -10544,7 +11210,7 @@
       <c r="E29" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -10558,7 +11224,7 @@
       <c r="E30" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
@@ -10574,7 +11240,7 @@
       <c r="E31" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
@@ -10588,7 +11254,7 @@
       <c r="E32" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
@@ -10602,7 +11268,7 @@
       <c r="E33" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
@@ -10616,7 +11282,7 @@
       <c r="E34" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
@@ -10630,7 +11296,7 @@
       <c r="E35" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
@@ -10644,7 +11310,7 @@
       <c r="E36" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="40"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="34"/>
@@ -10660,7 +11326,7 @@
       <c r="E37" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
@@ -10674,7 +11340,7 @@
       <c r="E38" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
@@ -10688,7 +11354,7 @@
       <c r="E39" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="40"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
@@ -10702,7 +11368,7 @@
       <c r="E40" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
@@ -10716,7 +11382,7 @@
       <c r="E41" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
@@ -10732,7 +11398,7 @@
       <c r="E42" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
@@ -10746,7 +11412,7 @@
       <c r="E43" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -10760,7 +11426,7 @@
       <c r="E44" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -10774,7 +11440,7 @@
       <c r="E45" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="40"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -10788,7 +11454,7 @@
       <c r="E46" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="40"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -10802,7 +11468,7 @@
       <c r="E47" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="40"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
@@ -10818,7 +11484,7 @@
       <c r="E48" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="40"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -10832,7 +11498,7 @@
       <c r="E49" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="40"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -10846,7 +11512,7 @@
       <c r="E50" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="40"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
@@ -10860,7 +11526,7 @@
       <c r="E51" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="40"/>
     </row>
     <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
@@ -10874,7 +11540,7 @@
       <c r="E52" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
@@ -10888,7 +11554,7 @@
       <c r="E53" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F53" s="45"/>
+      <c r="F53" s="40"/>
     </row>
     <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
@@ -10904,7 +11570,7 @@
       <c r="E54" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="40"/>
     </row>
     <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
@@ -10918,7 +11584,7 @@
       <c r="E55" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="40"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
@@ -10932,7 +11598,7 @@
       <c r="E56" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="40"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
@@ -10946,7 +11612,7 @@
       <c r="E57" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="40"/>
     </row>
     <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
@@ -10960,7 +11626,7 @@
       <c r="E58" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="45"/>
+      <c r="F58" s="40"/>
     </row>
     <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
@@ -10988,7 +11654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F3E008-0E54-4372-A39B-227CFD74ED70}">
   <dimension ref="A1:F102"/>
   <sheetViews>
@@ -11005,14 +11671,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
@@ -11047,7 +11713,7 @@
       <c r="E3" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
@@ -11063,7 +11729,7 @@
       <c r="E4" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
@@ -11079,7 +11745,7 @@
       <c r="E5" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="46"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
@@ -11093,7 +11759,7 @@
       <c r="E6" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="46"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="34"/>
@@ -11107,7 +11773,7 @@
       <c r="E7" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F7" s="46"/>
+      <c r="F7" s="41"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
@@ -11121,7 +11787,7 @@
       <c r="E8" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="41"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
@@ -11135,7 +11801,7 @@
       <c r="E9" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="46"/>
+      <c r="F9" s="41"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
@@ -11149,7 +11815,7 @@
       <c r="E10" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="41"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
@@ -11163,7 +11829,7 @@
       <c r="E11" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="41"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
@@ -11177,7 +11843,7 @@
       <c r="E12" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F12" s="46"/>
+      <c r="F12" s="41"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
@@ -11191,7 +11857,7 @@
       <c r="E13" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="46"/>
+      <c r="F13" s="41"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
@@ -11205,7 +11871,7 @@
       <c r="E14" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
@@ -11219,7 +11885,7 @@
       <c r="E15" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
@@ -11233,7 +11899,7 @@
       <c r="E16" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
@@ -11249,7 +11915,7 @@
       <c r="E17" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
@@ -11263,7 +11929,7 @@
       <c r="E18" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
@@ -11277,7 +11943,7 @@
       <c r="E19" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="46"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
@@ -11291,7 +11957,7 @@
       <c r="E20" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F20" s="46"/>
+      <c r="F20" s="41"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
@@ -11305,7 +11971,7 @@
       <c r="E21" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="41"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
@@ -11319,7 +11985,7 @@
       <c r="E22" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="41"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -11333,7 +11999,7 @@
       <c r="E23" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="46"/>
+      <c r="F23" s="41"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
@@ -11347,7 +12013,7 @@
       <c r="E24" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="41"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="34"/>
@@ -11361,7 +12027,7 @@
       <c r="E25" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="41"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
@@ -11375,7 +12041,7 @@
       <c r="E26" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="46"/>
+      <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
@@ -11389,7 +12055,7 @@
       <c r="E27" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="46"/>
+      <c r="F27" s="41"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
@@ -11403,7 +12069,7 @@
       <c r="E28" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F28" s="46"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
@@ -11419,7 +12085,7 @@
       <c r="E29" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
@@ -11433,7 +12099,7 @@
       <c r="E30" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="46"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
@@ -11447,7 +12113,7 @@
       <c r="E31" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="41"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
@@ -11461,7 +12127,7 @@
       <c r="E32" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
@@ -11475,7 +12141,7 @@
       <c r="E33" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F33" s="46"/>
+      <c r="F33" s="41"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
@@ -11489,7 +12155,7 @@
       <c r="E34" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F34" s="46"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
@@ -11503,7 +12169,7 @@
       <c r="E35" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
@@ -11517,7 +12183,7 @@
       <c r="E36" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="41"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="34"/>
@@ -11531,7 +12197,7 @@
       <c r="E37" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F37" s="46"/>
+      <c r="F37" s="41"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
@@ -11545,7 +12211,7 @@
       <c r="E38" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="41"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
@@ -11559,7 +12225,7 @@
       <c r="E39" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="46"/>
+      <c r="F39" s="41"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
@@ -11573,7 +12239,7 @@
       <c r="E40" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="46"/>
+      <c r="F40" s="41"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
@@ -11589,7 +12255,7 @@
       <c r="E41" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F41" s="46"/>
+      <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
@@ -11603,7 +12269,7 @@
       <c r="E42" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F42" s="46"/>
+      <c r="F42" s="41"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
@@ -11617,7 +12283,7 @@
       <c r="E43" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="46"/>
+      <c r="F43" s="41"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="34"/>
@@ -11631,7 +12297,7 @@
       <c r="E44" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="46"/>
+      <c r="F44" s="41"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
@@ -11645,7 +12311,7 @@
       <c r="E45" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="46"/>
+      <c r="F45" s="41"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
@@ -11659,7 +12325,7 @@
       <c r="E46" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="46"/>
+      <c r="F46" s="41"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="34"/>
@@ -11673,7 +12339,7 @@
       <c r="E47" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="46"/>
+      <c r="F47" s="41"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
@@ -11687,7 +12353,7 @@
       <c r="E48" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="46"/>
+      <c r="F48" s="41"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
@@ -11701,7 +12367,7 @@
       <c r="E49" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F49" s="46"/>
+      <c r="F49" s="41"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
@@ -11715,7 +12381,7 @@
       <c r="E50" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F50" s="46"/>
+      <c r="F50" s="41"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="34"/>
@@ -11731,7 +12397,7 @@
       <c r="E51" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F51" s="46"/>
+      <c r="F51" s="41"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="34"/>
@@ -11745,7 +12411,7 @@
       <c r="E52" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F52" s="46"/>
+      <c r="F52" s="41"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="34"/>
@@ -11759,7 +12425,7 @@
       <c r="E53" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F53" s="46"/>
+      <c r="F53" s="41"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="34"/>
@@ -11773,7 +12439,7 @@
       <c r="E54" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F54" s="46"/>
+      <c r="F54" s="41"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="34"/>
@@ -11787,7 +12453,7 @@
       <c r="E55" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F55" s="46"/>
+      <c r="F55" s="41"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="34"/>
@@ -11801,7 +12467,7 @@
       <c r="E56" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F56" s="46"/>
+      <c r="F56" s="41"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
@@ -11815,7 +12481,7 @@
       <c r="E57" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F57" s="46"/>
+      <c r="F57" s="41"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="34"/>
@@ -11829,7 +12495,7 @@
       <c r="E58" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F58" s="46"/>
+      <c r="F58" s="41"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="34"/>
@@ -11843,7 +12509,7 @@
       <c r="E59" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F59" s="46"/>
+      <c r="F59" s="41"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
@@ -11857,7 +12523,7 @@
       <c r="E60" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F60" s="46"/>
+      <c r="F60" s="41"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
@@ -11871,7 +12537,7 @@
       <c r="E61" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="46"/>
+      <c r="F61" s="41"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
@@ -11885,7 +12551,7 @@
       <c r="E62" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F62" s="46"/>
+      <c r="F62" s="41"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
@@ -11901,7 +12567,7 @@
       <c r="E63" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F63" s="46"/>
+      <c r="F63" s="41"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
@@ -11915,7 +12581,7 @@
       <c r="E64" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F64" s="46"/>
+      <c r="F64" s="41"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
@@ -11929,7 +12595,7 @@
       <c r="E65" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F65" s="46"/>
+      <c r="F65" s="41"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
@@ -11943,7 +12609,7 @@
       <c r="E66" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F66" s="46"/>
+      <c r="F66" s="41"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
@@ -11957,7 +12623,7 @@
       <c r="E67" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F67" s="46"/>
+      <c r="F67" s="41"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
@@ -11971,7 +12637,7 @@
       <c r="E68" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F68" s="46"/>
+      <c r="F68" s="41"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
@@ -11985,7 +12651,7 @@
       <c r="E69" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F69" s="46"/>
+      <c r="F69" s="41"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
@@ -11999,7 +12665,7 @@
       <c r="E70" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F70" s="46"/>
+      <c r="F70" s="41"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
@@ -12013,7 +12679,7 @@
       <c r="E71" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F71" s="46"/>
+      <c r="F71" s="41"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
@@ -12027,7 +12693,7 @@
       <c r="E72" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F72" s="46"/>
+      <c r="F72" s="41"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
@@ -12043,7 +12709,7 @@
       <c r="E73" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F73" s="46"/>
+      <c r="F73" s="41"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="34"/>
@@ -12057,7 +12723,7 @@
       <c r="E74" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F74" s="46"/>
+      <c r="F74" s="41"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
@@ -12065,7 +12731,7 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="41"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
@@ -12073,7 +12739,7 @@
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="41"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
@@ -12081,7 +12747,7 @@
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34"/>
-      <c r="F77" s="46"/>
+      <c r="F77" s="41"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
@@ -12089,7 +12755,7 @@
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="41"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="34"/>
@@ -12097,7 +12763,7 @@
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34"/>
-      <c r="F79" s="46"/>
+      <c r="F79" s="41"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
@@ -12105,7 +12771,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="41"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
@@ -12113,7 +12779,7 @@
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="41"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
@@ -12121,7 +12787,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="41"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
@@ -12129,7 +12795,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34"/>
-      <c r="F83" s="46"/>
+      <c r="F83" s="41"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
@@ -12137,7 +12803,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="41"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
@@ -12145,7 +12811,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="41"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
@@ -12153,7 +12819,7 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34"/>
-      <c r="F86" s="46"/>
+      <c r="F86" s="41"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
@@ -12161,7 +12827,7 @@
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="E87" s="34"/>
-      <c r="F87" s="46"/>
+      <c r="F87" s="41"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
@@ -12169,7 +12835,7 @@
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="41"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
@@ -12177,7 +12843,7 @@
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="41"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="34"/>
@@ -12185,7 +12851,7 @@
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="41"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="34"/>
@@ -12193,7 +12859,7 @@
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="41"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
@@ -12201,7 +12867,7 @@
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="41"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="34"/>
@@ -12209,7 +12875,7 @@
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34"/>
-      <c r="F93" s="46"/>
+      <c r="F93" s="41"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="34"/>
@@ -12217,7 +12883,7 @@
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="41"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
@@ -12225,7 +12891,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="41"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
@@ -12233,7 +12899,7 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="34"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="41"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="34" t="s">
@@ -12249,7 +12915,7 @@
       <c r="E97" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="F97" s="46"/>
+      <c r="F97" s="41"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
@@ -12257,7 +12923,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34"/>
-      <c r="F98" s="46"/>
+      <c r="F98" s="41"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
@@ -12298,7 +12964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB9FD7E-4F10-4884-A973-410015AA4783}">
   <dimension ref="A1:F500"/>
   <sheetViews>
@@ -12312,14 +12978,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -16541,7 +17207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B42BC8-20EC-4FDD-815C-15CD1624A63C}">
   <dimension ref="A1:F500"/>
   <sheetViews>
@@ -16552,14 +17218,14 @@
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -20771,7 +21437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CA9DEE-6012-446D-97FF-4607F703EA09}">
   <dimension ref="A1:F29"/>
   <sheetViews>
@@ -20786,14 +21452,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -21048,659 +21714,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713C6BF1-337C-48B5-96D5-3F86203A9C71}">
-  <dimension ref="A1:F500"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="33.7109375" style="33"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="33">
-        <v>7</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="33" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="35">
-        <v>8</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35">
-        <v>9</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35">
-        <v>10</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35">
-        <v>11</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35">
-        <v>12</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="35">
-        <v>1</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35">
-        <v>2</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
